--- a/data/hotels_by_city/Dallas/Dallas_shard_364.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_364.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="488">
   <si>
     <t>STR#</t>
   </si>
@@ -231,6 +231,9 @@
     <t>While the hotel is being renovated the staff remained helpful and upbeat. The fire alarm did go off while I was there and the communication process was awful but other than that the staff did a great job. I’ll go back after the renovations are complete. More</t>
   </si>
   <si>
+    <t>Christina T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r553651920-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -258,6 +261,9 @@
     <t>This was my second stay at this hotel and for the most part it is a typical HI Express. The bed was comfy and the staff was friendly and helpful. They are doing some renovations and upgrades at the moment so if you are traveling there soon, know that before you book. We weren’t bothered by the work. But there are obvious things being worked on at the moment.  More</t>
   </si>
   <si>
+    <t>emk98</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r544127974-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -285,6 +291,9 @@
     <t>I enjoyed my two nights at this hotel. The freshly renovated rooms are clean and well-appointed with an in room safe, plenty of regular and USB outlets, and a nice workspace. The bathroom is spacious with lots of counter space and Bath &amp; Body White Citrus toiletries. There are also makeup wipes, a small sewing kit, and mouthwash. The breakfast buffet has a good variety of hot and cold items and beverages. All employees were friendly and helpful. It’s a great value, and I wouldn’t hesitate to stay here again!More</t>
   </si>
   <si>
+    <t>EnglandAssistant</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r541400622-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -309,6 +318,9 @@
     <t>This hotel has bed bugs. When checking out, the desk clerk graciously refunded the cost of the room; however, was far from surprised at hearing the reason why we were checking out. I typically trust IHG properties. This is a true disappointment. More</t>
   </si>
   <si>
+    <t>Thomas A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r538743000-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -333,6 +345,9 @@
     <t>Clean an Comfortable with great breakfasts! Close to several good restaurants! Easy off and on near interstate! Just a bit pricey. Beds and pillows allowed a great nights sleep! Good variety of breakfast selections!More</t>
   </si>
   <si>
+    <t>Carli J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r523390029-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -360,6 +375,9 @@
     <t>Front desk staff was super friendly and a pleasure to deal with. That's pretty much where it ends with the good things to say about the hotel. Walked into the room and was assaulted by a horrible musky smell in the air that was being masked by having the AC unit on the snowballs setting. The toilet had a constant run so we had to keep the bathroom door closed to drown out the sound. The beds are horrible we could feel the springs in the mattresses and tossed and turned all night trying to find the sweet spot. Still woke up with stiff backs. Went looking for bottled water had to venture to the 3rd floor and was pleased to see the renovations taking place. Considering I had spent the night in a newly renovated Holiday Inn the night before in another state and saw the same room design I'm hopeful this location will be able to meet my expectations for a Holiday Inn. Location was convenient to my destination and lots of restaurant choices near by. I would give this location another try a few months down the road after the renovations are complete.More</t>
   </si>
   <si>
+    <t>CCLB78</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r519085167-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -387,6 +405,9 @@
     <t>This is the nastiest hotel I have ever stayed!!! Stains on the carpet in the hall and in the rooms. Stains on all of the furniture. It looked like it has never been cleaned. The smell was horrific. My eyes were red and irritated for the couple of days I was there. I had to leave early because of how nasty it was. I didn't feel comfortable in there at all. They said the 3rd floor is being remodeled. Well, if that's the case and they want to keep it clean...They either need better management or a different cleaning crew or both! I. Utterly disgusting by the service provided by Holiday Inn. I travel 100% for work. The hotels I stay in are suppose to be my home away from home. This place has failed my expectations. Never again. More</t>
   </si>
   <si>
+    <t>Tabitha H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r505281102-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -417,6 +438,9 @@
     <t>I stayed in a king suite and had a wonderful experience staff was friendly and helpful.  Felt very safe came in late that evening from being in Dallas.  Spoke with general manager during my stay and he was very friendly and accommodating for my friend and I.  He checked in with me the following day to make sure that everything was perfect for me.  I would recommend this hotel to anyone. This is the best experience I've had when speaking to a GM. Rooms were clean. Beds were comfortable will continue to visit this hotel.More</t>
   </si>
   <si>
+    <t>grt_8woman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r441953714-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -444,6 +468,9 @@
     <t>We didn't arrive until after 2:00 a.m. Immediately we were approached for 'gas money' from a man we didn't even notice as we were parking in the front of the hotel. The hotel was noisy and seemed in a less than desiable area for that time of night. We chose this hotel online as it accepted pets. Would not stay here again.More</t>
   </si>
   <si>
+    <t>Cindy N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r438847497-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -468,6 +495,9 @@
     <t>Friendly, helpful staff. Good clean amenities. Comfortable bed with an elephant folded towel which was a nice welcoming surprise as I love elephants! Good shower. Great breakfast supplied. Would recommend.More</t>
   </si>
   <si>
+    <t>Alexander C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r412104403-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -495,6 +525,9 @@
     <t>Great place to stay , was here on work dutie for two weeks, very helpful staff, close to alot of major attractions  to visit while here in duncanville texas , not far at all from downtown dallas.....great, hot breakfast , quiet are  , clean hotel with a whirpool and outdoor swimming pool...also a 24 hours supermarket right behind within walking distance....alex from HTFD CT....thanks..More</t>
   </si>
   <si>
+    <t>Jeremy5224</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r410154196-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -513,6 +546,9 @@
     <t>This hotel is very clean and updated. Upon checkin I was offered a bottle of water. The beds and pillows were very comfortable. The staff was very nice from the front desk to the lady putting out breakfast. I would recommend this hotel for an overnight trip or vacation. More</t>
   </si>
   <si>
+    <t>Cathy N Andy J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r400767738-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -537,6 +573,9 @@
     <t>As vistiors travelling the US for 3 months from Australia we have been relying on reviews to help with our choices..we have always been lucky and again we have been lucky here..clean and comfortable..providing everything we needed..excellent breakfast provided..nice pool .convenient to the highway and close enough to Downtown Dallas..would recommend this hotel More</t>
   </si>
   <si>
+    <t>marksw12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r399328630-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -564,6 +603,9 @@
     <t>When we checked in I informed the staff at the front desk that my wife was on oxygen and would like a room near the elevator or an entrance.  The room she gave us was all the way down the first floor corridor, 2 doors from the back door.  She did not explain that it would be closer to park in the rear of the property.  The room was just being finished up by a maintenance worker and he had to reconnect some wires on the TV to get it to work.  We asked him also for an extra chair as there was one chair at the desk and no where else to sit except the bed.  The bathroom walls had dripping stains like the paint had been running from hot steamy showers.  At bed time when I took my shoes off I discovered the carpet below the a/c unit and in front of the desk was soaked.  I supposed maintenance hadn't quite finished.  I informed the front desk upon checkout and they assured me they would have maintenance check it.  The breakfast had a pretty good variety.More</t>
   </si>
   <si>
+    <t>James A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r385794335-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -591,6 +633,9 @@
     <t>This is a decent hotel friendly staff and clean. Biggest problem is that the WIFI is absolutely horrible when you are on business travel you rely on this to get your work done and when it is poor it makes for a painful stay.In todays day in age there is no excuse for poor internet WIFI.Free breakfast is good.More</t>
   </si>
   <si>
+    <t>Ricardo A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r383982227-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -615,6 +660,9 @@
     <t>It was a very pleasant stay. Staff was friendly and the room clean. Breakfast was outstanding; it included coffee, juice, omelets, delicious cinnamon rolls, bacon, etc. Excellent value for the price. The hotel is conveniently located by I-20, and it is close to Duncanville's downtown.More</t>
   </si>
   <si>
+    <t>Douglas H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r375262340-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -642,6 +690,9 @@
     <t>Stayed here 5 nights while doing some work at a nearby industrial plant. The hotel itself was OK but could use some renovations. The neighborhood itself was just bad. Don't go out after dark. I will give high marks for the free breakfast, however. The food was good and the breakfast lady had everything put out on time, or even early, and was very pleasant.More</t>
   </si>
   <si>
+    <t>182p</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r363678803-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -669,6 +720,9 @@
     <t>Got 4 rooms for a week and was happy with the parking and even happier with my room. The men all said beds were comfortable and room was clean. They have a nice hot tub and swimming pool. Check in was easy and host was pleasant.More</t>
   </si>
   <si>
+    <t>Daffylou</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r362079635-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -699,6 +753,9 @@
     <t>Upon arriving, after the drive from Michigan, I was not in the mood to deal with any nonsense. After all, I am a card carrying member.  The young man who worked the desk the evening of the 25th was so kind and welcoming. I truly felt WELCOMED! I was a little skeptical because of some the reviews I read. They must have stayed at another hotel.  I enjoyed my stay!More</t>
   </si>
   <si>
+    <t>glo62</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r348600861-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -726,6 +783,9 @@
     <t>You can count on Holiday Inn to be clean and the breakfast to be fresh.  This hotel exceeded the standard!  Everything was sparkling clean in spite of the large number of high school basketball players there.  The kitchen manager was kept very busy because there were lots of hungry teens - but the food never ran out and the manager was cheerful through it all.  The front desk staff was friendly and efficient.  Highly recommend this one.More</t>
   </si>
   <si>
+    <t>PrestonRobinsonIII</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r319444036-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -753,6 +813,9 @@
     <t>I visited this location on business. From initial appearance, the hotel looked very nice. The lobby area was cozy and tidy, the rooms were clean and the management seemed pleasant. Upon inspection of the room, one could notice sings of wear and minor unfinished upgrade issues. My room was nice. The beds were comfortable, the pillows were fully and I got a good nights sleep. The toilet however did run constantly and caused minor noise. The shower curtain needed dire replacement. The rings were one good tug from not being able to hold it up anymore. Overall, the stay was pleasant and if probably book again. The hotel was blocks away from Pappadeaux's seafood restaurant. More</t>
   </si>
   <si>
+    <t>CANDACE B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r318281495-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -771,6 +834,9 @@
     <t>An excellent place to stay! The hotel was clean and quiet and the maids and hotel staff were very friendly and helpful.  Bath and Body signature toiletries. WOW! Complimentary breakfast was delicious. From hot food to cold, so many choices all good.  Craig at the front desk attended to our every need. From housing our luggage until our ride arrived to exchanging bills for coins for the vending machine. We thank him again.  And we can not forget the chocolate chip cookies at the front desk at check in. Thanks to all staff members for making our stay unforgettable!More</t>
   </si>
   <si>
+    <t>1gr8dancer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r300321650-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -798,6 +864,9 @@
     <t>I book this room in July 2015 and was quoted a rate of $68 a night. I took down the confirmation number not realizing I never received an email confirmation. I checked in on August 13th with no problems. The room was clean, comfortable and suited my needs. There was a faulty fire alarm that went off at 4:30 am Saturday morning, and my television did not work on Saturday. After repeated call to the desk they sent someone to reprogram it. On Saturday night into early Sunday morning the phone in my room rang repeatedly and I called the front desk to complain. I was assured my room had not been called. The last call was at about 5 am and I again called the desk to complain. Again told no one had called my room.  The front desk then called me at 5:45 am to ask me if I still wanted my 7:30 am wake up call! Upon checking out I found my room rate charge was $78 nightly. I asked for a manager and was told by the teeny bopper working the desk, " Managers don't work on the weekends." No week in manager, really? I'll always get an email confirmation from now on.More</t>
   </si>
   <si>
+    <t>Bruce P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r291789491-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -820,6 +889,9 @@
   </si>
   <si>
     <t>I like the The place it was your standard holiday inn in the hood didn't smell funny was fairly clean good bargain for that side of town very friendly customer service breakfast was the same O same O pancake machine yogurt milk everything was freshMore</t>
+  </si>
+  <si>
+    <t>CharlieCN</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r290771905-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
@@ -855,6 +927,9 @@
 So as not to write a book, here's a summary of what we had to do before we could settle into our room:  1) empty the trash cans by the desk and in the bathroom.  2) Clean the toothpaste off the inside and outside of the bathroom door - surprisingly, the mirror was clean.  3) Decided not to put our clean clothes in the dirty drawers.  4) Clean the oily residue and hairs off the hair dryer.  5) Wipe out the...This hotel has GREAT BONES - it's structurally pleasing and very well laid-out and planned.  However, it is in serious need of attention, maintenance, cleaning, and updating/renovating.The first thing that greeted us when we walked into the lobby was the musty, almost "moldy", smell of an old building.  I looked over, and there was Ayana at the front desk who is STELLAR at customer service.  Could almost ignore the smell as she welcomed me in.  Almost.  Ayanna, Dorothy (the breakfast lady), Ian (front desk), Cihrag (front desk) are SUPER pleasant and focused on providing the personal interaction that separates IHG from other brands in a positive way. The WiFi works AWESOME, and the channel selection is GREAT!  The TVs are SUPER, the only minor annoyance is there was only one remote.  And we forget to take it with us to the bedroom (we booked a 2-room suite), so one of us has to get up to get it. So as not to write a book, here's a summary of what we had to do before we could settle into our room:  1) empty the trash cans by the desk and in the bathroom.  2) Clean the toothpaste off the inside and outside of the bathroom door - surprisingly, the mirror was clean.  3) Decided not to put our clean clothes in the dirty drawers.  4) Clean the oily residue and hairs off the hair dryer.  5) Wipe out the hairs in the tub.  6) Figure out how to turn off the sink faucet - it leaks.  7) Pick up popcorn kernels and staples out of the carpet.  8) Clean out the microwave.  9) Wipe down the cabinets under the wet bar's sink - it smelled pretty bad.  10) Argue about whether or not to find another hotel.  I lost the argument.This is a hotel that I could NEVER walk barefoot in!  Flip flops everywhere!   The wet bar is nice, but there is no lighting, so it's dark when the sun goes down.  The couch is old and used beyond it's life-span … when you sit on it, you SINK down in it - ick.  You could sit on the edge of either the far left or far right sides, against the arm rests - but they're stained and have an "off" smell.  All of our walls and corners have dings and smudges.Although the air conditioning works AWESOME, the vents are so dirty that you can see the dust balls and watch as dust is blown from the unit into the air.  The pool looked clean and maintained - my husband enjoyed the pool.  However, the pool area, like the hotel, needs some attention.  It has a great layout and is well-planned, however the tables need a good scrubbing (there was chewing gum on the top of one table, and a greasy substance on another that had collected bugs &amp; grit), the grill (which is a nice addition) is just kind of hanging out as an afterthought, there were piles of towels left on the green space for a couple of days, and the grass-weed mix needed mowing.  The trees in the pool and parking areas are in desperate need of trimming.They don't have express check-out.  When I checked out, Cihrag asked me how our stay was, my response was they customer service was great, the cleanliness, not so much.  He just apologized for housekeeping.  Is it really housekeeping?  Why isn't the management holding the housekeeping staff accountable?More</t>
   </si>
   <si>
+    <t>natalies428</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r288916917-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -900,6 +975,9 @@
     <t>We chose this hotel for the close proximity to the Potters House....as the reputation of HI, it was clean, friendly and efficient staff and reasonably priced....although I think it's time for the mattresses to be replaced, it may just be a personal preference for firmer mattresses.....although, we didn't request it when making the reservation, when checking in, we asked for a handicap accessible room and it was not a problem, at no additional charge.More</t>
   </si>
   <si>
+    <t>P G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r263227283-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -927,6 +1005,9 @@
     <t>I am always pleased with Holiday Inn.-but this visit was so disappointing.The tv color was green,the refrigerator was loud-so we unplugged it and there were multiple coils of pubic hair in the bathroom.The curtains in the room were sheer -so there was no privacy.ughMore</t>
   </si>
   <si>
+    <t>George B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r200014438-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -954,6 +1035,9 @@
     <t>Very clean and spacious room, quiet with lots of restaurants near by. Friendly staff. Only problem was that the entrance to the parking lot is on an entrance ramp, I missed it the first time :( If you have a GPS you won't have a problem :)More</t>
   </si>
   <si>
+    <t>off2h2oski</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r199795623-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -975,6 +1059,9 @@
     <t>I've stayed in A LOT of Holiday Inn Expresses.  My room here was arguably the nicest one I've found so far....actually nicer then the majority of Crown Plaza rooms I've stayed in.  Place was whisper quiet and there are a variety of restaurants nearby.  Staff came across as rather stoic, but were helpful nonetheless.More</t>
   </si>
   <si>
+    <t>acdfpic</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r191094439-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -1002,6 +1089,9 @@
     <t>An average HI Express.   Good room,  not too noisy, and decent price. The one exception...and it's a good one...was the breakfast room attendant.   What a delight!  Being greeted with a big smile and a cheerful good morning is great way to start the day!More</t>
   </si>
   <si>
+    <t>Cedar Hill T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r180750190-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -1029,6 +1119,9 @@
     <t>We stayed on 10/11/13 to celebrate our daughter's 13th b-day.  It started with the inaccurate room reservations, receiving a COMP room from Tasha misidentifying herself as a Manager, being checked out of the room that was supposely COMP for another day, staff stealing personal and expensive items from the room, Valeria admitting the housekeeping staff stole the items, contacting the local police to file a report and charges to the end result NO management contact, follow-up or reasonable accommodation to resolve all these inappropriate and unprofessional incidents from his staff.  The night front desk clerk made every attempt to fix her co-workers mistakes, locate one item from my "stolen" belongings and even printing a receipt from my stay that I never received.  This was the WORST experience I have ever encountered at a hotel stay and would not advise my worst enemy to book reservations or visit this location!  I feel so VIOLATED, angry, frustrated and for a better taste of words - FURIOUS that Holiday Inn would allow their employees to steal from their guest and have no consequences or return any stolen items.  THE SERVICE AND STAY IS AWFUL......More</t>
   </si>
   <si>
+    <t>franklinmilford</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r178359431-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -1053,6 +1146,9 @@
     <t>Having stayed here on othr visits to area, I was happy when I viewed my travel plans.....wrong!!!! This has been one trip from hell. It started out with a concussion on a wierdly placed soap dish at eye level to be told too bad, no insurance here. They were nice enoughto upgrade me on point room choice, but that just meant more space for thigs to go wrong. The toilet stayed clogged. The sink in the wet bar never drained. The pillows had visible chunks of foam (whatever happened to HIE wonderful pillows?). The television (or cable never worked aboved channel 4 (limiting viewing pleasure!) When the signal on tv was coming in, only half the screen worked. The air conditioner had to be replaced day 2 as it didnt work. The shower drained so slowly I stood in inches of water until it finally stopped working.They had no stand by immenities,ie sewing kit,toothbrush. The hot tub had no dial, so unless you brought pliers with you, too bad. This is just the tip of the iceberg. Management didnt care. When Kieth was shown my injuries, he literally shrugged his shoulders and returned behing the partition. All complaints about things not working were "made note of" and never passed on. Maintenance leaves at 5, so get your work orders in early. A standard answer was we can move you to another room. 12 times in one month? No thanks. I...Having stayed here on othr visits to area, I was happy when I viewed my travel plans.....wrong!!!! This has been one trip from hell. It started out with a concussion on a wierdly placed soap dish at eye level to be told too bad, no insurance here. They were nice enoughto upgrade me on point room choice, but that just meant more space for thigs to go wrong. The toilet stayed clogged. The sink in the wet bar never drained. The pillows had visible chunks of foam (whatever happened to HIE wonderful pillows?). The television (or cable never worked aboved channel 4 (limiting viewing pleasure!) When the signal on tv was coming in, only half the screen worked. The air conditioner had to be replaced day 2 as it didnt work. The shower drained so slowly I stood in inches of water until it finally stopped working.They had no stand by immenities,ie sewing kit,toothbrush. The hot tub had no dial, so unless you brought pliers with you, too bad. This is just the tip of the iceberg. Management didnt care. When Kieth was shown my injuries, he literally shrugged his shoulders and returned behing the partition. All complaints about things not working were "made note of" and never passed on. Maintenance leaves at 5, so get your work orders in early. A standard answer was we can move you to another room. 12 times in one month? No thanks. I noticed in the prep area for breakfast that the uncooked cinnamon buns were kept on floor at room temp.....health department are you listening? The list just goes on, and staff either just doesnt care, or, they just dont care. Upon entering lobby, an overflowing ashtray greets you, in addition to ground around it being littered with butts. The place just never felt clean up to HIE usual standards. It just amazes me that with all these issues, night shift still had time to either sit in lobby and watch tv or sleep behind partition. Either way, this visit ensures I dont need to spend my money at this chain any more. And as a final note, if there is a response from an "agent" to this post, you are just as guilty. Even though a serious injury ocurred on one of your properties, and a case number was issued, no one has bothered to follow up with me. Too bad, I really liked this place.More</t>
   </si>
   <si>
+    <t>Ms_C_2112</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r177362148-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -1071,6 +1167,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>Brett S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r168650414-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -1098,6 +1197,9 @@
     <t>I am a platinum members that travels a lot and stays at many different Holidays Inn. I never write reviews becuase my experience with Holiday Inn is always excellent , except this stay. I checked into my room at 3am and requested a late check out which is 2pm for priorty members. Around 9 am ( 6 hours after I checked in) I was woken up by loud music. I come to find out that the adjacent wall to my room is a conference room that is rented to a church on Sunday morning. The church has loud speakers and I was not able to go back to sleep. I contacted the manager the following week and asked why I was not warned? He was very indifferent to my complaint. I suggested people be warned that Sunday there is loud music. He disagreed with me. I could not believe the way I was treated by the manager. The manager acted like I was taking up his valuable time, he did not care about discussing my problem, he rather had me go complain to Holiday Inn.This is not a typical way Holiday Inn handles complaints. I called the Priorty Deparment and money is being refunded. I would not recommend you stay on a Saturday night on the first 2 floors unless you are going to wake up by 8am, becuase the music will wake you up.Reason for Visit:PleasureMore</t>
   </si>
   <si>
+    <t>HisBabyJohnson</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r164207918-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -1122,6 +1224,9 @@
     <t>My husband and I booked this hotel through Hotwire.com so we weren't sure what hotel we would get until we paid. For $84 tax and all this hotel was very good for the price. The breakfast was average, the bed pretty comfortable and it was very clean. Nothing to write home about, but no complaints either. As to be expected for a Holiday Inn Express. I expected superb cinnamon rolls after reading other reviews, but they could have been much better. One thing that was very well appreciated was free late checkout (2:00).  My husband and I really appreciated that and we enjoyed the whirlpool!More</t>
   </si>
   <si>
+    <t>David I</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r154426047-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -1147,6 +1252,9 @@
   </si>
   <si>
     <t>Fist off, let me preface this brief review with the holte, Holiday Inn Express in Duncanville Texas is very clean and the associates are very friendly.  The bed however, was the most unfortable bed that I have ever been in (i would have said slept in however, i didn't get any sleep).  Secondly, don't beleive the promise.  Every Holiday Inn has one of those plastic signs in the bathroom "Hospitality Promise" "Forget Something", if you have ever stayed at a Holiday Inn property, I am sure you have seen them.  For the first time, I ad forgotten my toothbrush.  No worry, they have the hospitality promise.....  Not this hotel.  Unfortunately the only item the front desk person had in her drawer was toothpaste...  Plus, the spa / pool closed.More</t>
+  </si>
+  <si>
+    <t>Gadget665</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r147562309-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
@@ -1174,6 +1282,9 @@
 Also, everything is on the service roads along the highway and the service roads are one way.  So, let's say you want to go to the...I have yet to stay in a bad Holiday in Suites.  My family stayed in the HI in De Soto in 2010 and had a great stay.  For this hotel, we got the mini-suite like we did in De Soto.  There were four of us, so the mini-suite was a requirement.  The price ended up being lower than the best price I could find online -- another reason to be pleased.  The breakfast is included and has a good variety of items, for the meat eater to the meat avoiders.  The lobby area is really nice and great for meeting with other guests.  The rooms were very nice.The only problem I had was location.  This hotel is right on Hwy 67 and it almost seems like there's more traffic there on a major highway.  The sound-proofing is okay, but it could be better.  GET A ROOM ON THE BACKSIDE IF AT ALL POSSIBLE!!!  One side note.  For some reason, they pipe music to speakers on the front side of the building.  I'm not sure why since there's already enough "music" from the car and truck noise on the highway.  My room was above the lobby and had to tell them to turn it down.  They were really nice and just turned it off.Also, everything is on the service roads along the highway and the service roads are one way.  So, let's say you want to go to the Jack In The Box that's a few building up from the hotel.  You drive to it, but to get back to the hotel, you have to keep driving up to the next traffic light, cross Hwy 67, drive back to the next traffic light, cross again, then up to the hotel.  A bit of an inconvenience to have to make this loop, but it is what it is.  I will agree with the other writers that there are a lot stores and restaurants in the area, so you don't have to go far.  You just have to deal with Hwy 67 and the service roads.  Overall, it was a good experience.More</t>
   </si>
   <si>
+    <t>Shaylynn0803</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r147093111-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -1210,6 +1321,9 @@
     <t>I stayed here for over a week and only have one small complaint- no ashtray in the smoking room. But even that was accomodated for!!! Non-smokers fear not, this place does not smell, and these rooms will probably be phasing out. I had doubts from reading prior posts, and was slightly paanoid, but this was unjust. I felt perfectly safe, and saw no signs of anyone complaining of vehicle break-ins,etc. I was greeted warmly and check in was a breeze. A relitively small foyer, but the breakfast area makes up for it. The room was standard HIE quality, better than some in this chain, better than majority of other chains in this price point. All staff members were friendly, stopping to chat, give directions (and short cuts!), recommend restaurants, etc. Such a plus over the standard shoulder shrug! This hotel sits right off the freeway, but noise was never an issue. The breakfast bar had the required cinnamon rolls, hot, gooey,tender....yum! There was also make your own waffles, sausage and bacon, eggs, breads, juices and milk with hot and cold cereal, and oh did I mention the cinnamon rolls? A great stay overall, if I made my own reservations I would definitely stay here when working in this area!More</t>
   </si>
   <si>
+    <t>kara b</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r129645951-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -1231,6 +1345,9 @@
     <t>I just recently stayed at the Express in Duncanville, and the staff was very professional. I have stayed here before and I loved it even more this time. They have just completed a beautiful renovation of new furniture, carpet. It is so fresh and new.... If you have ever stayed at a holiday inn, i promise these are the biggest rooms i have ever seen in a hotel. Now they are so small, but not this property..I wish i had pictures I could load to show you. I stay here to see my family so that they can visit their grandkids and they always have fun in the indoor spa or pool. The breakfast is very good and I always feel safe. You should try it, they have a great staff and comfortable beds.More</t>
   </si>
   <si>
+    <t>Elementals</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r105578341-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -1249,6 +1366,9 @@
     <t>We checked in at almost midnight. we parked front and center, you could see our car and clearly see UNDER our car from the double doors.  8 am we out, started our cat and it sounded like a Harley.  Someone used a hacksaw and cut  the catalytic from our exhaust system.  Have you ever heard metal being sawed into?!? Not a quick/subtle crime.  Inside job?  You have to wonder!!  Desk didn't seem to care about anything but keeping it quiet.  They were NOT surprised.  Said cameras are only on sides of bldg.  Hmmmm.  Why would a thief choose a car in the light at the front door unless they knew they'd be safe?More</t>
   </si>
   <si>
+    <t>abbey101</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r81781373-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -1270,6 +1390,9 @@
     <t>I am a frequent traveler and travel all over the country. The hotel was an average hotel, i stayed there because it was closer to where i was working. My truck was parked on the side of the hotel and during the night my window was busted out and my stereo was stolen as well as several personal items. What fun to wake up to. When i notified the front desk to see if they had a camera on it they said they did not get it on camera. they acted as if it happend before and were like ok will call the police for ya!! i def dont recomend this stay.More</t>
   </si>
   <si>
+    <t>txjtr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r45420794-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -1288,6 +1411,9 @@
     <t>September 2009</t>
   </si>
   <si>
+    <t>BananaBuzzbomb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r27197217-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -1306,6 +1432,9 @@
     <t>July 2008</t>
   </si>
   <si>
+    <t>coogie36</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r26851482-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -1327,6 +1456,9 @@
     <t>Because of my job, I stay in this hotel every week.  The people here are the nicest you could ever ask for!  They go out of their way to accomodate me and the odd schedule I have to keep due to my job.  My family and I enjoy traveling so stay in a lot of different hotels.  I can honestly say the people here are the nicest and the customer service is the BEST than in any hotel I have stayed in, in any country I have traveled to.  From the check in counter to the sweet little lady that prepares the free breakfast every morning.  The hotel is immaculate/clean, the beds very comfortable, a microwave and fridge in every room, free internet and a nice large desk to work at.  There is also a table (not rack) to sit your luggage on while you unpack.  The linens and pillows are upgraded and I don't sleep at home as well as I do here!  I would recommend this hotel to anyone!More</t>
   </si>
   <si>
+    <t>Borgo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r18247832-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -1340,6 +1472,9 @@
   </si>
   <si>
     <t>Several members of our family stayed here while we attended a family wedding.  The hotel was very nice and a wonderful value.  The rooms were very clean, nicely decorated and roomy.  The staff was helpful and we had no surprises in securing the rooms we had reserved.  After a hot Texas afternoon it was so pleasant to be in a comfortable, cool hotel with a spacious lobby to visit.  We would most certainly stay here again.  We had never stayed in a Holiday Inn Express but look forward to trying them again on our next trip.</t>
+  </si>
+  <si>
+    <t>ohsowonderfulme</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r17617798-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
@@ -2042,8 +2177,12 @@
       <c r="A5" t="n">
         <v>50471</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>102035</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
@@ -2051,7 +2190,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -2060,22 +2199,22 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
         <v>61</v>
@@ -2090,21 +2229,25 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>50471</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>155542</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
@@ -2112,7 +2255,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -2121,22 +2264,22 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O6" t="s">
         <v>61</v>
@@ -2151,21 +2294,25 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="X6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Y6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>50471</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>155543</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
@@ -2173,7 +2320,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -2182,16 +2329,16 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
@@ -2208,21 +2355,25 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="X7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Y7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>50471</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>64905</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
@@ -2230,7 +2381,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -2239,22 +2390,22 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="J8" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K8" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="L8" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O8" t="s">
         <v>52</v>
@@ -2269,21 +2420,25 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="X8" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="Y8" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>50471</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>155544</v>
+      </c>
+      <c r="C9" t="s">
+        <v>109</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
@@ -2291,7 +2446,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -2300,22 +2455,22 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J9" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="K9" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="L9" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="O9" t="s">
         <v>52</v>
@@ -2330,21 +2485,25 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="X9" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="Y9" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>50471</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>155545</v>
+      </c>
+      <c r="C10" t="s">
+        <v>119</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
@@ -2352,7 +2511,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -2361,22 +2520,22 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="J10" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="K10" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="L10" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="O10" t="s">
         <v>61</v>
@@ -2391,21 +2550,25 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="X10" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="Y10" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>50471</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>155546</v>
+      </c>
+      <c r="C11" t="s">
+        <v>129</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
@@ -2413,7 +2576,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -2422,25 +2585,25 @@
         <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="J11" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="K11" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="L11" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="O11" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2452,21 +2615,25 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="X11" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="Y11" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>50471</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>65629</v>
+      </c>
+      <c r="C12" t="s">
+        <v>140</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
@@ -2474,7 +2641,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -2483,22 +2650,22 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="J12" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="K12" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="L12" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="O12" t="s">
         <v>52</v>
@@ -2519,21 +2686,25 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="X12" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="Y12" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>50471</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>155547</v>
+      </c>
+      <c r="C13" t="s">
+        <v>150</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
@@ -2541,7 +2712,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -2550,22 +2721,22 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="J13" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="K13" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="L13" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="O13" t="s">
         <v>52</v>
@@ -2586,21 +2757,25 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="X13" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="Y13" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>50471</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>50857</v>
+      </c>
+      <c r="C14" t="s">
+        <v>159</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
@@ -2608,7 +2783,7 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="G14" t="s">
         <v>45</v>
@@ -2617,22 +2792,22 @@
         <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="J14" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="K14" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="L14" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="O14" t="s">
         <v>61</v>
@@ -2647,21 +2822,25 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="X14" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="Y14" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>50471</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>155548</v>
+      </c>
+      <c r="C15" t="s">
+        <v>169</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
@@ -2669,7 +2848,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -2678,22 +2857,22 @@
         <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="J15" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="K15" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="L15" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="O15" t="s">
         <v>61</v>
@@ -2708,21 +2887,25 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="X15" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="Y15" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>50471</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>113804</v>
+      </c>
+      <c r="C16" t="s">
+        <v>176</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
@@ -2730,7 +2913,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -2739,22 +2922,22 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="J16" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="K16" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="L16" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="O16" t="s">
         <v>52</v>
@@ -2769,21 +2952,25 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="X16" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="Y16" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>50471</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>8988</v>
+      </c>
+      <c r="C17" t="s">
+        <v>185</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
@@ -2791,7 +2978,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -2800,22 +2987,22 @@
         <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="J17" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="K17" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="L17" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="O17" t="s">
         <v>52</v>
@@ -2836,21 +3023,25 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="X17" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="Y17" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>50471</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>6838</v>
+      </c>
+      <c r="C18" t="s">
+        <v>195</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
@@ -2858,7 +3049,7 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="G18" t="s">
         <v>45</v>
@@ -2867,22 +3058,22 @@
         <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="J18" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="K18" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="L18" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="O18" t="s">
         <v>61</v>
@@ -2897,21 +3088,25 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="X18" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="Y18" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>50471</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>43931</v>
+      </c>
+      <c r="C19" t="s">
+        <v>205</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
@@ -2919,7 +3114,7 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="G19" t="s">
         <v>45</v>
@@ -2928,22 +3123,22 @@
         <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="J19" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="K19" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="L19" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="O19" t="s">
         <v>61</v>
@@ -2958,21 +3153,25 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="X19" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="Y19" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>50471</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>71472</v>
+      </c>
+      <c r="C20" t="s">
+        <v>214</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
@@ -2980,7 +3179,7 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="G20" t="s">
         <v>45</v>
@@ -2989,22 +3188,22 @@
         <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="J20" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="K20" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="L20" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="O20" t="s">
         <v>61</v>
@@ -3019,21 +3218,25 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="X20" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="Y20" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>50471</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>155549</v>
+      </c>
+      <c r="C21" t="s">
+        <v>224</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
@@ -3041,7 +3244,7 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="G21" t="s">
         <v>45</v>
@@ -3050,22 +3253,22 @@
         <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="J21" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="K21" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="L21" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="O21" t="s">
         <v>61</v>
@@ -3080,21 +3283,25 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="X21" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="Y21" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>50471</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>155550</v>
+      </c>
+      <c r="C22" t="s">
+        <v>234</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
@@ -3102,7 +3309,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="G22" t="s">
         <v>45</v>
@@ -3111,25 +3318,25 @@
         <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="J22" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="K22" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="L22" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="O22" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -3147,21 +3354,25 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="X22" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="Y22" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>50471</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>155551</v>
+      </c>
+      <c r="C23" t="s">
+        <v>245</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
@@ -3169,7 +3380,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="G23" t="s">
         <v>45</v>
@@ -3178,22 +3389,22 @@
         <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="J23" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="K23" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="L23" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="O23" t="s">
         <v>52</v>
@@ -3212,21 +3423,25 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="X23" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="Y23" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>50471</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>50809</v>
+      </c>
+      <c r="C24" t="s">
+        <v>255</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
@@ -3234,7 +3449,7 @@
         <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="G24" t="s">
         <v>45</v>
@@ -3243,22 +3458,22 @@
         <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="J24" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="K24" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="L24" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="O24" t="s">
         <v>61</v>
@@ -3273,21 +3488,25 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="X24" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="Y24" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>50471</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>155552</v>
+      </c>
+      <c r="C25" t="s">
+        <v>265</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
@@ -3295,7 +3514,7 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G25" t="s">
         <v>45</v>
@@ -3304,25 +3523,25 @@
         <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="J25" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="K25" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="L25" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
+        <v>261</v>
+      </c>
+      <c r="O25" t="s">
         <v>241</v>
-      </c>
-      <c r="O25" t="s">
-        <v>223</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
@@ -3340,21 +3559,25 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="X25" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="Y25" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>50471</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>155553</v>
+      </c>
+      <c r="C26" t="s">
+        <v>272</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
@@ -3362,7 +3585,7 @@
         <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="G26" t="s">
         <v>45</v>
@@ -3371,25 +3594,25 @@
         <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="J26" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="K26" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L26" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="O26" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3405,21 +3628,25 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="X26" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="Y26" t="s">
-        <v>259</v>
+        <v>281</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>50471</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>26638</v>
+      </c>
+      <c r="C27" t="s">
+        <v>282</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
@@ -3427,7 +3654,7 @@
         <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="G27" t="s">
         <v>45</v>
@@ -3436,16 +3663,16 @@
         <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>261</v>
+        <v>284</v>
       </c>
       <c r="J27" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="K27" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="L27" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
@@ -3462,21 +3689,25 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="X27" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="Y27" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>50471</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>155554</v>
+      </c>
+      <c r="C28" t="s">
+        <v>291</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
@@ -3484,7 +3715,7 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="G28" t="s">
         <v>45</v>
@@ -3493,22 +3724,22 @@
         <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="J28" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="K28" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="L28" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="M28" t="n">
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="O28" t="s">
         <v>61</v>
@@ -3527,21 +3758,25 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="X28" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="Y28" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>50471</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>155555</v>
+      </c>
+      <c r="C29" t="s">
+        <v>301</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
@@ -3549,7 +3784,7 @@
         <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="G29" t="s">
         <v>45</v>
@@ -3558,25 +3793,25 @@
         <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="J29" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="K29" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="L29" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="O29" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="n">
@@ -3594,13 +3829,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="X29" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="Y29" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
     </row>
     <row r="30">
@@ -3616,7 +3851,7 @@
         <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="G30" t="s">
         <v>45</v>
@@ -3625,22 +3860,22 @@
         <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c r="J30" t="s">
-        <v>285</v>
+        <v>310</v>
       </c>
       <c r="K30" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="L30" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c r="O30" t="s">
         <v>52</v>
@@ -3659,21 +3894,25 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="X30" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="Y30" t="s">
-        <v>291</v>
+        <v>316</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>50471</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>155556</v>
+      </c>
+      <c r="C31" t="s">
+        <v>317</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
@@ -3681,7 +3920,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="G31" t="s">
         <v>45</v>
@@ -3690,25 +3929,25 @@
         <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="J31" t="s">
-        <v>294</v>
+        <v>320</v>
       </c>
       <c r="K31" t="s">
-        <v>295</v>
+        <v>321</v>
       </c>
       <c r="L31" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
       <c r="O31" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3720,21 +3959,25 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="X31" t="s">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="Y31" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>50471</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>30718</v>
+      </c>
+      <c r="C32" t="s">
+        <v>327</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
@@ -3742,7 +3985,7 @@
         <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
       <c r="G32" t="s">
         <v>45</v>
@@ -3751,25 +3994,25 @@
         <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>302</v>
+        <v>329</v>
       </c>
       <c r="J32" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="K32" t="s">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="L32" t="s">
-        <v>305</v>
+        <v>332</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="O32" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -3791,21 +4034,25 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>307</v>
+        <v>334</v>
       </c>
       <c r="X32" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
       <c r="Y32" t="s">
-        <v>309</v>
+        <v>336</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>50471</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>155557</v>
+      </c>
+      <c r="C33" t="s">
+        <v>337</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
@@ -3813,7 +4060,7 @@
         <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="G33" t="s">
         <v>45</v>
@@ -3822,25 +4069,25 @@
         <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>311</v>
+        <v>339</v>
       </c>
       <c r="J33" t="s">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="K33" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="L33" t="s">
-        <v>314</v>
+        <v>342</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="O33" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -3862,21 +4109,25 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>307</v>
+        <v>334</v>
       </c>
       <c r="X33" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
       <c r="Y33" t="s">
-        <v>316</v>
+        <v>344</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>50471</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>60812</v>
+      </c>
+      <c r="C34" t="s">
+        <v>345</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
@@ -3884,7 +4135,7 @@
         <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>317</v>
+        <v>346</v>
       </c>
       <c r="G34" t="s">
         <v>45</v>
@@ -3893,25 +4144,25 @@
         <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>318</v>
+        <v>347</v>
       </c>
       <c r="J34" t="s">
-        <v>319</v>
+        <v>348</v>
       </c>
       <c r="K34" t="s">
-        <v>320</v>
+        <v>349</v>
       </c>
       <c r="L34" t="s">
-        <v>321</v>
+        <v>350</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>322</v>
+        <v>351</v>
       </c>
       <c r="O34" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="P34" t="n">
         <v>3</v>
@@ -3933,21 +4184,25 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
       <c r="X34" t="s">
-        <v>324</v>
+        <v>353</v>
       </c>
       <c r="Y34" t="s">
-        <v>325</v>
+        <v>354</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>50471</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>155558</v>
+      </c>
+      <c r="C35" t="s">
+        <v>355</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
@@ -3955,7 +4210,7 @@
         <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>326</v>
+        <v>356</v>
       </c>
       <c r="G35" t="s">
         <v>45</v>
@@ -3964,25 +4219,25 @@
         <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>327</v>
+        <v>357</v>
       </c>
       <c r="J35" t="s">
-        <v>328</v>
+        <v>358</v>
       </c>
       <c r="K35" t="s">
-        <v>329</v>
+        <v>359</v>
       </c>
       <c r="L35" t="s">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>331</v>
+        <v>361</v>
       </c>
       <c r="O35" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="P35" t="n">
         <v>1</v>
@@ -4004,21 +4259,25 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>332</v>
+        <v>362</v>
       </c>
       <c r="X35" t="s">
-        <v>333</v>
+        <v>363</v>
       </c>
       <c r="Y35" t="s">
-        <v>334</v>
+        <v>364</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>50471</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>70965</v>
+      </c>
+      <c r="C36" t="s">
+        <v>365</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
@@ -4026,7 +4285,7 @@
         <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>335</v>
+        <v>366</v>
       </c>
       <c r="G36" t="s">
         <v>45</v>
@@ -4035,16 +4294,16 @@
         <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>336</v>
+        <v>367</v>
       </c>
       <c r="J36" t="s">
-        <v>337</v>
+        <v>368</v>
       </c>
       <c r="K36" t="s">
-        <v>338</v>
+        <v>369</v>
       </c>
       <c r="L36" t="s">
-        <v>339</v>
+        <v>370</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
@@ -4071,21 +4330,25 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>340</v>
+        <v>371</v>
       </c>
       <c r="X36" t="s">
-        <v>341</v>
+        <v>372</v>
       </c>
       <c r="Y36" t="s">
-        <v>342</v>
+        <v>373</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>50471</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>47541</v>
+      </c>
+      <c r="C37" t="s">
+        <v>374</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
@@ -4093,7 +4356,7 @@
         <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>343</v>
+        <v>375</v>
       </c>
       <c r="G37" t="s">
         <v>45</v>
@@ -4102,22 +4365,22 @@
         <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>344</v>
+        <v>376</v>
       </c>
       <c r="J37" t="s">
-        <v>345</v>
+        <v>377</v>
       </c>
       <c r="K37" t="s">
-        <v>346</v>
+        <v>378</v>
       </c>
       <c r="L37" t="s">
-        <v>347</v>
+        <v>379</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>348</v>
+        <v>380</v>
       </c>
       <c r="O37" t="s">
         <v>52</v>
@@ -4144,15 +4407,19 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>347</v>
+        <v>379</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>50471</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>41235</v>
+      </c>
+      <c r="C38" t="s">
+        <v>381</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
@@ -4160,7 +4427,7 @@
         <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>349</v>
+        <v>382</v>
       </c>
       <c r="G38" t="s">
         <v>45</v>
@@ -4169,25 +4436,25 @@
         <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>350</v>
+        <v>383</v>
       </c>
       <c r="J38" t="s">
-        <v>351</v>
+        <v>384</v>
       </c>
       <c r="K38" t="s">
-        <v>352</v>
+        <v>385</v>
       </c>
       <c r="L38" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="O38" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4209,21 +4476,25 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>355</v>
+        <v>388</v>
       </c>
       <c r="X38" t="s">
-        <v>356</v>
+        <v>389</v>
       </c>
       <c r="Y38" t="s">
-        <v>357</v>
+        <v>390</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>50471</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>155559</v>
+      </c>
+      <c r="C39" t="s">
+        <v>391</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
@@ -4231,7 +4502,7 @@
         <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>358</v>
+        <v>392</v>
       </c>
       <c r="G39" t="s">
         <v>45</v>
@@ -4240,16 +4511,16 @@
         <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>359</v>
+        <v>393</v>
       </c>
       <c r="J39" t="s">
-        <v>360</v>
+        <v>394</v>
       </c>
       <c r="K39" t="s">
-        <v>361</v>
+        <v>395</v>
       </c>
       <c r="L39" t="s">
-        <v>362</v>
+        <v>396</v>
       </c>
       <c r="M39" t="n">
         <v>3</v>
@@ -4276,21 +4547,25 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>363</v>
+        <v>397</v>
       </c>
       <c r="X39" t="s">
-        <v>364</v>
+        <v>398</v>
       </c>
       <c r="Y39" t="s">
-        <v>365</v>
+        <v>399</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>50471</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>20794</v>
+      </c>
+      <c r="C40" t="s">
+        <v>400</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
@@ -4298,7 +4573,7 @@
         <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>366</v>
+        <v>401</v>
       </c>
       <c r="G40" t="s">
         <v>45</v>
@@ -4307,22 +4582,22 @@
         <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>367</v>
+        <v>402</v>
       </c>
       <c r="J40" t="s">
-        <v>368</v>
+        <v>403</v>
       </c>
       <c r="K40" t="s">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="L40" t="s">
-        <v>370</v>
+        <v>405</v>
       </c>
       <c r="M40" t="n">
         <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>371</v>
+        <v>406</v>
       </c>
       <c r="O40" t="s">
         <v>61</v>
@@ -4347,21 +4622,25 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>372</v>
+        <v>407</v>
       </c>
       <c r="X40" t="s">
-        <v>373</v>
+        <v>408</v>
       </c>
       <c r="Y40" t="s">
-        <v>374</v>
+        <v>409</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>50471</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>155560</v>
+      </c>
+      <c r="C41" t="s">
+        <v>410</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
@@ -4369,7 +4648,7 @@
         <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>375</v>
+        <v>411</v>
       </c>
       <c r="G41" t="s">
         <v>45</v>
@@ -4378,25 +4657,25 @@
         <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>376</v>
+        <v>412</v>
       </c>
       <c r="J41" t="s">
-        <v>377</v>
+        <v>413</v>
       </c>
       <c r="K41" t="s">
-        <v>378</v>
+        <v>414</v>
       </c>
       <c r="L41" t="s">
-        <v>379</v>
+        <v>415</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>380</v>
+        <v>416</v>
       </c>
       <c r="O41" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -4420,15 +4699,19 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>381</v>
+        <v>417</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>50471</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>155561</v>
+      </c>
+      <c r="C42" t="s">
+        <v>418</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
@@ -4436,7 +4719,7 @@
         <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>382</v>
+        <v>419</v>
       </c>
       <c r="G42" t="s">
         <v>45</v>
@@ -4445,25 +4728,25 @@
         <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>383</v>
+        <v>420</v>
       </c>
       <c r="J42" t="s">
-        <v>384</v>
+        <v>421</v>
       </c>
       <c r="K42" t="s">
-        <v>385</v>
+        <v>422</v>
       </c>
       <c r="L42" t="s">
-        <v>386</v>
+        <v>423</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>380</v>
+        <v>416</v>
       </c>
       <c r="O42" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="P42" t="n">
         <v>3</v>
@@ -4487,15 +4770,19 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>386</v>
+        <v>423</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>50471</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>70965</v>
+      </c>
+      <c r="C43" t="s">
+        <v>365</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
@@ -4503,7 +4790,7 @@
         <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>387</v>
+        <v>424</v>
       </c>
       <c r="G43" t="s">
         <v>45</v>
@@ -4512,22 +4799,22 @@
         <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>388</v>
+        <v>425</v>
       </c>
       <c r="J43" t="s">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="K43" t="s">
-        <v>390</v>
+        <v>427</v>
       </c>
       <c r="L43" t="s">
-        <v>391</v>
+        <v>428</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>392</v>
+        <v>429</v>
       </c>
       <c r="O43" t="s">
         <v>61</v>
@@ -4554,15 +4841,19 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>393</v>
+        <v>430</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>50471</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>155562</v>
+      </c>
+      <c r="C44" t="s">
+        <v>431</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
@@ -4570,7 +4861,7 @@
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>394</v>
+        <v>432</v>
       </c>
       <c r="G44" t="s">
         <v>45</v>
@@ -4579,25 +4870,25 @@
         <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>395</v>
+        <v>433</v>
       </c>
       <c r="J44" t="s">
-        <v>396</v>
+        <v>434</v>
       </c>
       <c r="K44" t="s">
-        <v>397</v>
+        <v>435</v>
       </c>
       <c r="L44" t="s">
-        <v>398</v>
+        <v>436</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>399</v>
+        <v>437</v>
       </c>
       <c r="O44" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4621,15 +4912,19 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>400</v>
+        <v>438</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>50471</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>155563</v>
+      </c>
+      <c r="C45" t="s">
+        <v>439</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
@@ -4637,7 +4932,7 @@
         <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>401</v>
+        <v>440</v>
       </c>
       <c r="G45" t="s">
         <v>45</v>
@@ -4646,16 +4941,16 @@
         <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>402</v>
+        <v>441</v>
       </c>
       <c r="J45" t="s">
-        <v>403</v>
+        <v>442</v>
       </c>
       <c r="K45" t="s">
-        <v>404</v>
+        <v>443</v>
       </c>
       <c r="L45" t="s">
-        <v>405</v>
+        <v>444</v>
       </c>
       <c r="M45" t="n">
         <v>1</v>
@@ -4684,15 +4979,19 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>406</v>
+        <v>445</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>50471</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>155564</v>
+      </c>
+      <c r="C46" t="s">
+        <v>446</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
@@ -4700,7 +4999,7 @@
         <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>407</v>
+        <v>447</v>
       </c>
       <c r="G46" t="s">
         <v>45</v>
@@ -4709,22 +5008,22 @@
         <v>46</v>
       </c>
       <c r="I46" t="s">
-        <v>408</v>
+        <v>448</v>
       </c>
       <c r="J46" t="s">
-        <v>409</v>
+        <v>449</v>
       </c>
       <c r="K46" t="s">
-        <v>410</v>
+        <v>450</v>
       </c>
       <c r="L46" t="s">
-        <v>411</v>
+        <v>451</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>412</v>
+        <v>452</v>
       </c>
       <c r="O46" t="s">
         <v>61</v>
@@ -4751,15 +5050,19 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>413</v>
+        <v>453</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>50471</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>155565</v>
+      </c>
+      <c r="C47" t="s">
+        <v>454</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
@@ -4767,7 +5070,7 @@
         <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>414</v>
+        <v>455</v>
       </c>
       <c r="G47" t="s">
         <v>45</v>
@@ -4776,25 +5079,25 @@
         <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>415</v>
+        <v>456</v>
       </c>
       <c r="J47" t="s">
-        <v>416</v>
+        <v>457</v>
       </c>
       <c r="K47" t="s">
-        <v>417</v>
+        <v>458</v>
       </c>
       <c r="L47" t="s">
-        <v>418</v>
+        <v>459</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>419</v>
+        <v>460</v>
       </c>
       <c r="O47" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="P47" t="n">
         <v>4</v>
@@ -4818,15 +5121,19 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>418</v>
+        <v>459</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>50471</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>41011</v>
+      </c>
+      <c r="C48" t="s">
+        <v>461</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
@@ -4834,7 +5141,7 @@
         <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>420</v>
+        <v>462</v>
       </c>
       <c r="G48" t="s">
         <v>45</v>
@@ -4843,22 +5150,22 @@
         <v>46</v>
       </c>
       <c r="I48" t="s">
-        <v>421</v>
+        <v>463</v>
       </c>
       <c r="J48" t="s">
-        <v>422</v>
+        <v>464</v>
       </c>
       <c r="K48" t="s">
-        <v>423</v>
+        <v>465</v>
       </c>
       <c r="L48" t="s">
-        <v>424</v>
+        <v>466</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>425</v>
+        <v>467</v>
       </c>
       <c r="O48" t="s">
         <v>61</v>
@@ -4885,15 +5192,19 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>424</v>
+        <v>466</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>50471</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>155566</v>
+      </c>
+      <c r="C49" t="s">
+        <v>468</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
@@ -4901,7 +5212,7 @@
         <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>426</v>
+        <v>469</v>
       </c>
       <c r="G49" t="s">
         <v>45</v>
@@ -4910,22 +5221,22 @@
         <v>46</v>
       </c>
       <c r="I49" t="s">
-        <v>427</v>
+        <v>470</v>
       </c>
       <c r="J49" t="s">
-        <v>428</v>
+        <v>471</v>
       </c>
       <c r="K49" t="s">
-        <v>429</v>
+        <v>472</v>
       </c>
       <c r="L49" t="s">
-        <v>430</v>
+        <v>473</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>431</v>
+        <v>474</v>
       </c>
       <c r="O49" t="s">
         <v>61</v>
@@ -4952,15 +5263,19 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>50471</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>155567</v>
+      </c>
+      <c r="C50" t="s">
+        <v>476</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
@@ -4968,7 +5283,7 @@
         <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>433</v>
+        <v>477</v>
       </c>
       <c r="G50" t="s">
         <v>45</v>
@@ -4977,22 +5292,22 @@
         <v>46</v>
       </c>
       <c r="I50" t="s">
-        <v>434</v>
+        <v>478</v>
       </c>
       <c r="J50" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="K50" t="s">
-        <v>436</v>
+        <v>480</v>
       </c>
       <c r="L50" t="s">
-        <v>437</v>
+        <v>481</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>425</v>
+        <v>467</v>
       </c>
       <c r="O50" t="s">
         <v>52</v>
@@ -5019,15 +5334,19 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>437</v>
+        <v>481</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>50471</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>155568</v>
+      </c>
+      <c r="C51" t="s">
+        <v>482</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
@@ -5035,7 +5354,7 @@
         <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>438</v>
+        <v>483</v>
       </c>
       <c r="G51" t="s">
         <v>45</v>
@@ -5044,16 +5363,16 @@
         <v>46</v>
       </c>
       <c r="I51" t="s">
-        <v>439</v>
+        <v>484</v>
       </c>
       <c r="J51" t="s">
-        <v>440</v>
+        <v>485</v>
       </c>
       <c r="K51" t="s">
-        <v>441</v>
+        <v>486</v>
       </c>
       <c r="L51" t="s">
-        <v>442</v>
+        <v>487</v>
       </c>
       <c r="M51" t="n">
         <v>1</v>
@@ -5072,7 +5391,7 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>442</v>
+        <v>487</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_364.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_364.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="587">
   <si>
     <t>STR#</t>
   </si>
@@ -147,7 +147,7 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>06/12/2018</t>
+    <t>08/22/2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r576447221-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
@@ -177,10 +177,10 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
-    <t>Elijah R, General Manager at Holiday Inn Express Suites - Duncanville, responded to this reviewResponded 5 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 5 weeks ago</t>
+    <t>Elijah R, General Manager at Holiday Inn Express Suites - Duncanville, responded to this reviewResponded May 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2018</t>
   </si>
   <si>
     <t>So I am an IHG member and we drive a tractor/trailer.  I made a reservation for this hotel via the IHG app for two days and then called the hotel about an hour later to let them know that it would be after midnight to early morning before I could check in but still needed the room to get some sleep. They advised no problem I am in the system and the room will be there whenever I showed up.  Well I showed up and they had “no showed” me and had no rooms available and the girl didn’t seem to care.  Without incident, which was good on my part, we grabbed our bags and called the Holiday Inn down the street at Cedar Hill and explained my situation and he said to come on down he would take care of me which he did (had to Uber twice).  He also advised I was the 4th person they did that way today and also my wife spoke with a gentleman in the elevator and he advised they did his friend that way on Friday and he had to sleep on a roll-away bed until a room opened up here.  If I had not called I would understand but I did and also my reservation said they could bill me the cost of the room if I didn’t show, so they would not have lost money by holding it like they...So I am an IHG member and we drive a tractor/trailer.  I made a reservation for this hotel via the IHG app for two days and then called the hotel about an hour later to let them know that it would be after midnight to early morning before I could check in but still needed the room to get some sleep. They advised no problem I am in the system and the room will be there whenever I showed up.  Well I showed up and they had “no showed” me and had no rooms available and the girl didn’t seem to care.  Without incident, which was good on my part, we grabbed our bags and called the Holiday Inn down the street at Cedar Hill and explained my situation and he said to come on down he would take care of me which he did (had to Uber twice).  He also advised I was the 4th person they did that way today and also my wife spoke with a gentleman in the elevator and he advised they did his friend that way on Friday and he had to sleep on a roll-away bed until a room opened up here.  If I had not called I would understand but I did and also my reservation said they could bill me the cost of the room if I didn’t show, so they would not have lost money by holding it like they promised.  I stay in the area several times a year but I will never attempt to stay here again, not recommend it to anyone.More</t>
@@ -231,9 +231,6 @@
     <t>While the hotel is being renovated the staff remained helpful and upbeat. The fire alarm did go off while I was there and the communication process was awful but other than that the staff did a great job. I’ll go back after the renovations are complete. More</t>
   </si>
   <si>
-    <t>Christina T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r553651920-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -261,9 +258,6 @@
     <t>This was my second stay at this hotel and for the most part it is a typical HI Express. The bed was comfy and the staff was friendly and helpful. They are doing some renovations and upgrades at the moment so if you are traveling there soon, know that before you book. We weren’t bothered by the work. But there are obvious things being worked on at the moment.  More</t>
   </si>
   <si>
-    <t>emk98</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r544127974-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -291,9 +285,6 @@
     <t>I enjoyed my two nights at this hotel. The freshly renovated rooms are clean and well-appointed with an in room safe, plenty of regular and USB outlets, and a nice workspace. The bathroom is spacious with lots of counter space and Bath &amp; Body White Citrus toiletries. There are also makeup wipes, a small sewing kit, and mouthwash. The breakfast buffet has a good variety of hot and cold items and beverages. All employees were friendly and helpful. It’s a great value, and I wouldn’t hesitate to stay here again!More</t>
   </si>
   <si>
-    <t>EnglandAssistant</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r541400622-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -318,9 +309,6 @@
     <t>This hotel has bed bugs. When checking out, the desk clerk graciously refunded the cost of the room; however, was far from surprised at hearing the reason why we were checking out. I typically trust IHG properties. This is a true disappointment. More</t>
   </si>
   <si>
-    <t>Thomas A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r538743000-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -345,9 +333,6 @@
     <t>Clean an Comfortable with great breakfasts! Close to several good restaurants! Easy off and on near interstate! Just a bit pricey. Beds and pillows allowed a great nights sleep! Good variety of breakfast selections!More</t>
   </si>
   <si>
-    <t>Carli J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r523390029-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -375,9 +360,6 @@
     <t>Front desk staff was super friendly and a pleasure to deal with. That's pretty much where it ends with the good things to say about the hotel. Walked into the room and was assaulted by a horrible musky smell in the air that was being masked by having the AC unit on the snowballs setting. The toilet had a constant run so we had to keep the bathroom door closed to drown out the sound. The beds are horrible we could feel the springs in the mattresses and tossed and turned all night trying to find the sweet spot. Still woke up with stiff backs. Went looking for bottled water had to venture to the 3rd floor and was pleased to see the renovations taking place. Considering I had spent the night in a newly renovated Holiday Inn the night before in another state and saw the same room design I'm hopeful this location will be able to meet my expectations for a Holiday Inn. Location was convenient to my destination and lots of restaurant choices near by. I would give this location another try a few months down the road after the renovations are complete.More</t>
   </si>
   <si>
-    <t>CCLB78</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r519085167-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -405,9 +387,6 @@
     <t>This is the nastiest hotel I have ever stayed!!! Stains on the carpet in the hall and in the rooms. Stains on all of the furniture. It looked like it has never been cleaned. The smell was horrific. My eyes were red and irritated for the couple of days I was there. I had to leave early because of how nasty it was. I didn't feel comfortable in there at all. They said the 3rd floor is being remodeled. Well, if that's the case and they want to keep it clean...They either need better management or a different cleaning crew or both! I. Utterly disgusting by the service provided by Holiday Inn. I travel 100% for work. The hotels I stay in are suppose to be my home away from home. This place has failed my expectations. Never again. More</t>
   </si>
   <si>
-    <t>Tabitha H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r505281102-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -438,7 +417,138 @@
     <t>I stayed in a king suite and had a wonderful experience staff was friendly and helpful.  Felt very safe came in late that evening from being in Dallas.  Spoke with general manager during my stay and he was very friendly and accommodating for my friend and I.  He checked in with me the following day to make sure that everything was perfect for me.  I would recommend this hotel to anyone. This is the best experience I've had when speaking to a GM. Rooms were clean. Beds were comfortable will continue to visit this hotel.More</t>
   </si>
   <si>
-    <t>grt_8woman</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r503703688-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>503703688</t>
+  </si>
+  <si>
+    <t>07/19/2017</t>
+  </si>
+  <si>
+    <t>Nasty example of the HIEx</t>
+  </si>
+  <si>
+    <t>If Holiday Inn is looking for someone to ruin their brand - bring them here. Rooms were nasty. Not only was the housekeeping lousy (hair all over the place, etc), but my room had a Glade plug-in and a fragrance hockey puck in the vent of the AC. Not sure what they were trying to cover up - but one can only imagine it was not nice. The bed was u-shaped - probably should have been replaced 10 years ago. Don't get me started about the staff or the breakfast. Better options abound.MoreShow less</t>
+  </si>
+  <si>
+    <t>Elijah R, General Manager at Holiday Inn Express Suites - Duncanville, responded to this reviewResponded July 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2017</t>
+  </si>
+  <si>
+    <t>If Holiday Inn is looking for someone to ruin their brand - bring them here. Rooms were nasty. Not only was the housekeeping lousy (hair all over the place, etc), but my room had a Glade plug-in and a fragrance hockey puck in the vent of the AC. Not sure what they were trying to cover up - but one can only imagine it was not nice. The bed was u-shaped - probably should have been replaced 10 years ago. Don't get me started about the staff or the breakfast. Better options abound.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r497003721-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>497003721</t>
+  </si>
+  <si>
+    <t>06/28/2017</t>
+  </si>
+  <si>
+    <t>Dirty Rooms</t>
+  </si>
+  <si>
+    <t>My family and I was very disappointed in the rooms and the service that we received at the Holiday Inn Express &amp; Suites in Duncanville,Tx.  This hotel is the worst IHG hotel that we have ever stayed in. The room they put us in the bathroom was dirty. There was stains in the furniture and the carpet. There was even a small hole in the upper part of one of the walls. The room also had an odor in it. The staff put a room air fresher in the 
+A/C to mask the odor.  The view from our room was of the overhang which had a huge hole in it and was a eye sore.  When I went to talk to the staff about the room, the manager on duty was reluctant to move us and gave me excuse for the room being that way. Once we was moved to a different room it appeared to be better until we used the sink and the water would not drain out. I didn't realize how dirty the carpet was until I saw the bottom of my girls fresh new pair of socks which was black from walking on the carpet. This hotel is dirty and need major renovations. This is very disappointing with being a platinum elite member. My family and I would not have expected to be put in rooms that was unclean and the bad customer service that we...My family and I was very disappointed in the rooms and the service that we received at the Holiday Inn Express &amp; Suites in Duncanville,Tx.  This hotel is the worst IHG hotel that we have ever stayed in. The room they put us in the bathroom was dirty. There was stains in the furniture and the carpet. There was even a small hole in the upper part of one of the walls. The room also had an odor in it. The staff put a room air fresher in the A/C to mask the odor.  The view from our room was of the overhang which had a huge hole in it and was a eye sore.  When I went to talk to the staff about the room, the manager on duty was reluctant to move us and gave me excuse for the room being that way. Once we was moved to a different room it appeared to be better until we used the sink and the water would not drain out. I didn't realize how dirty the carpet was until I saw the bottom of my girls fresh new pair of socks which was black from walking on the carpet. This hotel is dirty and need major renovations. This is very disappointing with being a platinum elite member. My family and I would not have expected to be put in rooms that was unclean and the bad customer service that we received with this being in the IHG family. I would not stay here again nor would I recommend anyone else to. We would like the total amount of my rewards points returned to my account. Yalonda MoreShow less</t>
+  </si>
+  <si>
+    <t>Elijah R, General Manager at Holiday Inn Express Suites - Duncanville, responded to this reviewResponded June 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2017</t>
+  </si>
+  <si>
+    <t>My family and I was very disappointed in the rooms and the service that we received at the Holiday Inn Express &amp; Suites in Duncanville,Tx.  This hotel is the worst IHG hotel that we have ever stayed in. The room they put us in the bathroom was dirty. There was stains in the furniture and the carpet. There was even a small hole in the upper part of one of the walls. The room also had an odor in it. The staff put a room air fresher in the 
+A/C to mask the odor.  The view from our room was of the overhang which had a huge hole in it and was a eye sore.  When I went to talk to the staff about the room, the manager on duty was reluctant to move us and gave me excuse for the room being that way. Once we was moved to a different room it appeared to be better until we used the sink and the water would not drain out. I didn't realize how dirty the carpet was until I saw the bottom of my girls fresh new pair of socks which was black from walking on the carpet. This hotel is dirty and need major renovations. This is very disappointing with being a platinum elite member. My family and I would not have expected to be put in rooms that was unclean and the bad customer service that we...My family and I was very disappointed in the rooms and the service that we received at the Holiday Inn Express &amp; Suites in Duncanville,Tx.  This hotel is the worst IHG hotel that we have ever stayed in. The room they put us in the bathroom was dirty. There was stains in the furniture and the carpet. There was even a small hole in the upper part of one of the walls. The room also had an odor in it. The staff put a room air fresher in the A/C to mask the odor.  The view from our room was of the overhang which had a huge hole in it and was a eye sore.  When I went to talk to the staff about the room, the manager on duty was reluctant to move us and gave me excuse for the room being that way. Once we was moved to a different room it appeared to be better until we used the sink and the water would not drain out. I didn't realize how dirty the carpet was until I saw the bottom of my girls fresh new pair of socks which was black from walking on the carpet. This hotel is dirty and need major renovations. This is very disappointing with being a platinum elite member. My family and I would not have expected to be put in rooms that was unclean and the bad customer service that we received with this being in the IHG family. I would not stay here again nor would I recommend anyone else to. We would like the total amount of my rewards points returned to my account. Yalonda More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r494291448-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>494291448</t>
+  </si>
+  <si>
+    <t>06/19/2017</t>
+  </si>
+  <si>
+    <t>Glad to find this hotel</t>
+  </si>
+  <si>
+    <t>Needed a place to spend the night in the outskirts of Dallas and was looking for a decent hotel at a reasonable rate. Holiday inn express exceeded my expectations, spacious room with high ceiling, comfortable beds, excellent breakfast but above all things great personnel, attentive, friendly and efficient. Upon arrival I brought up a concern and it was resolved immediately. I almost forgot to mention next door to hotel there is a meat market/grocery store/restaurant called la Michoacana that sells great tasting food at a fraction of what you would pay at any restaurant MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Elijah R, General Manager at Holiday Inn Express Suites - Duncanville, responded to this reviewResponded June 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2017</t>
+  </si>
+  <si>
+    <t>Needed a place to spend the night in the outskirts of Dallas and was looking for a decent hotel at a reasonable rate. Holiday inn express exceeded my expectations, spacious room with high ceiling, comfortable beds, excellent breakfast but above all things great personnel, attentive, friendly and efficient. Upon arrival I brought up a concern and it was resolved immediately. I almost forgot to mention next door to hotel there is a meat market/grocery store/restaurant called la Michoacana that sells great tasting food at a fraction of what you would pay at any restaurant More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r484944492-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>484944492</t>
+  </si>
+  <si>
+    <t>05/17/2017</t>
+  </si>
+  <si>
+    <t>Great value - Breakfast OK</t>
+  </si>
+  <si>
+    <t>I had pre-planned my stay as I was traveling home to El Paso from Maine so needless to say this was my last stop and I was ready to be home! Immediately upon entering I was amazed by how renovated and gorgeous the main entryway was. I immediately looked around and couldn't believe the value I was getting. The staff who was in charge of the front desk was dealing with several things at once so I did not mind having to wait a few minutes. I can't remember his name, but he was very friendly and even offered me a bottle of water (which I greatly appreciated after the long drive.) I was traveling with just myself and two small children so every move I made was a lot of work. I got to my room to find that it smelled VERY VERY heavily of Cigarette smoke (smoke free campus?) and it appeared that the staff worked very hard to cover it up. I couldn't do it - we immediately went back downstairs to speak with the front desk. The gentleman was not terribly apologetic, but switched us to another room without any fuss. The room I had originally paid for was a "suite" and we were traded down to a smaller room (quite disappointing I might add considering what I had actually paid for.) When we got to the room I was disappointed to see that the rooms...I had pre-planned my stay as I was traveling home to El Paso from Maine so needless to say this was my last stop and I was ready to be home! Immediately upon entering I was amazed by how renovated and gorgeous the main entryway was. I immediately looked around and couldn't believe the value I was getting. The staff who was in charge of the front desk was dealing with several things at once so I did not mind having to wait a few minutes. I can't remember his name, but he was very friendly and even offered me a bottle of water (which I greatly appreciated after the long drive.) I was traveling with just myself and two small children so every move I made was a lot of work. I got to my room to find that it smelled VERY VERY heavily of Cigarette smoke (smoke free campus?) and it appeared that the staff worked very hard to cover it up. I couldn't do it - we immediately went back downstairs to speak with the front desk. The gentleman was not terribly apologetic, but switched us to another room without any fuss. The room I had originally paid for was a "suite" and we were traded down to a smaller room (quite disappointing I might add considering what I had actually paid for.) When we got to the room I was disappointed to see that the rooms were not as updated and renovated as the front entrance was. The coffeemaker was next to the toilet, but I've never received so many toiletries (this part was awesome.) In the morning we were a little late(er) to breakfast. Staff was not terribly friendly, and the food was just OK (in comparison to some of the other IHG hotels I have stayed in.) All in all - we only stayed the one night, and it was great for what we needed. Not sure if I would return at this time.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Elijah R, General Manager at Holiday Inn Express Suites - Duncanville, responded to this reviewResponded May 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2017</t>
+  </si>
+  <si>
+    <t>I had pre-planned my stay as I was traveling home to El Paso from Maine so needless to say this was my last stop and I was ready to be home! Immediately upon entering I was amazed by how renovated and gorgeous the main entryway was. I immediately looked around and couldn't believe the value I was getting. The staff who was in charge of the front desk was dealing with several things at once so I did not mind having to wait a few minutes. I can't remember his name, but he was very friendly and even offered me a bottle of water (which I greatly appreciated after the long drive.) I was traveling with just myself and two small children so every move I made was a lot of work. I got to my room to find that it smelled VERY VERY heavily of Cigarette smoke (smoke free campus?) and it appeared that the staff worked very hard to cover it up. I couldn't do it - we immediately went back downstairs to speak with the front desk. The gentleman was not terribly apologetic, but switched us to another room without any fuss. The room I had originally paid for was a "suite" and we were traded down to a smaller room (quite disappointing I might add considering what I had actually paid for.) When we got to the room I was disappointed to see that the rooms...I had pre-planned my stay as I was traveling home to El Paso from Maine so needless to say this was my last stop and I was ready to be home! Immediately upon entering I was amazed by how renovated and gorgeous the main entryway was. I immediately looked around and couldn't believe the value I was getting. The staff who was in charge of the front desk was dealing with several things at once so I did not mind having to wait a few minutes. I can't remember his name, but he was very friendly and even offered me a bottle of water (which I greatly appreciated after the long drive.) I was traveling with just myself and two small children so every move I made was a lot of work. I got to my room to find that it smelled VERY VERY heavily of Cigarette smoke (smoke free campus?) and it appeared that the staff worked very hard to cover it up. I couldn't do it - we immediately went back downstairs to speak with the front desk. The gentleman was not terribly apologetic, but switched us to another room without any fuss. The room I had originally paid for was a "suite" and we were traded down to a smaller room (quite disappointing I might add considering what I had actually paid for.) When we got to the room I was disappointed to see that the rooms were not as updated and renovated as the front entrance was. The coffeemaker was next to the toilet, but I've never received so many toiletries (this part was awesome.) In the morning we were a little late(er) to breakfast. Staff was not terribly friendly, and the food was just OK (in comparison to some of the other IHG hotels I have stayed in.) All in all - we only stayed the one night, and it was great for what we needed. Not sure if I would return at this time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r478157535-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>478157535</t>
+  </si>
+  <si>
+    <t>04/23/2017</t>
+  </si>
+  <si>
+    <t>rude and uncaring</t>
+  </si>
+  <si>
+    <t>I will never stay here again. The General Manager of the hotel has zero guest skills. I am a Holiday Inn Gol Card member so I stay at Holiday inn properties a lot. My experience with the GM of this property nearly cost Holiday Inn International all of my business.MoreShow less</t>
+  </si>
+  <si>
+    <t>Elijah R, General Manager at Holiday Inn Express Suites - Duncanville, responded to this reviewResponded April 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2017</t>
+  </si>
+  <si>
+    <t>I will never stay here again. The General Manager of the hotel has zero guest skills. I am a Holiday Inn Gol Card member so I stay at Holiday inn properties a lot. My experience with the GM of this property nearly cost Holiday Inn International all of my business.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r441953714-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
@@ -468,9 +578,6 @@
     <t>We didn't arrive until after 2:00 a.m. Immediately we were approached for 'gas money' from a man we didn't even notice as we were parking in the front of the hotel. The hotel was noisy and seemed in a less than desiable area for that time of night. We chose this hotel online as it accepted pets. Would not stay here again.More</t>
   </si>
   <si>
-    <t>Cindy N</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r438847497-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -495,9 +602,6 @@
     <t>Friendly, helpful staff. Good clean amenities. Comfortable bed with an elephant folded towel which was a nice welcoming surprise as I love elephants! Good shower. Great breakfast supplied. Would recommend.More</t>
   </si>
   <si>
-    <t>Alexander C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r412104403-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -525,9 +629,6 @@
     <t>Great place to stay , was here on work dutie for two weeks, very helpful staff, close to alot of major attractions  to visit while here in duncanville texas , not far at all from downtown dallas.....great, hot breakfast , quiet are  , clean hotel with a whirpool and outdoor swimming pool...also a 24 hours supermarket right behind within walking distance....alex from HTFD CT....thanks..More</t>
   </si>
   <si>
-    <t>Jeremy5224</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r410154196-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -546,9 +647,6 @@
     <t>This hotel is very clean and updated. Upon checkin I was offered a bottle of water. The beds and pillows were very comfortable. The staff was very nice from the front desk to the lady putting out breakfast. I would recommend this hotel for an overnight trip or vacation. More</t>
   </si>
   <si>
-    <t>Cathy N Andy J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r400767738-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -573,9 +671,6 @@
     <t>As vistiors travelling the US for 3 months from Australia we have been relying on reviews to help with our choices..we have always been lucky and again we have been lucky here..clean and comfortable..providing everything we needed..excellent breakfast provided..nice pool .convenient to the highway and close enough to Downtown Dallas..would recommend this hotel More</t>
   </si>
   <si>
-    <t>marksw12</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r399328630-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -603,9 +698,6 @@
     <t>When we checked in I informed the staff at the front desk that my wife was on oxygen and would like a room near the elevator or an entrance.  The room she gave us was all the way down the first floor corridor, 2 doors from the back door.  She did not explain that it would be closer to park in the rear of the property.  The room was just being finished up by a maintenance worker and he had to reconnect some wires on the TV to get it to work.  We asked him also for an extra chair as there was one chair at the desk and no where else to sit except the bed.  The bathroom walls had dripping stains like the paint had been running from hot steamy showers.  At bed time when I took my shoes off I discovered the carpet below the a/c unit and in front of the desk was soaked.  I supposed maintenance hadn't quite finished.  I informed the front desk upon checkout and they assured me they would have maintenance check it.  The breakfast had a pretty good variety.More</t>
   </si>
   <si>
-    <t>James A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r385794335-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -633,9 +725,6 @@
     <t>This is a decent hotel friendly staff and clean. Biggest problem is that the WIFI is absolutely horrible when you are on business travel you rely on this to get your work done and when it is poor it makes for a painful stay.In todays day in age there is no excuse for poor internet WIFI.Free breakfast is good.More</t>
   </si>
   <si>
-    <t>Ricardo A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r383982227-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -660,9 +749,6 @@
     <t>It was a very pleasant stay. Staff was friendly and the room clean. Breakfast was outstanding; it included coffee, juice, omelets, delicious cinnamon rolls, bacon, etc. Excellent value for the price. The hotel is conveniently located by I-20, and it is close to Duncanville's downtown.More</t>
   </si>
   <si>
-    <t>Douglas H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r375262340-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -690,9 +776,6 @@
     <t>Stayed here 5 nights while doing some work at a nearby industrial plant. The hotel itself was OK but could use some renovations. The neighborhood itself was just bad. Don't go out after dark. I will give high marks for the free breakfast, however. The food was good and the breakfast lady had everything put out on time, or even early, and was very pleasant.More</t>
   </si>
   <si>
-    <t>182p</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r363678803-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -720,9 +803,6 @@
     <t>Got 4 rooms for a week and was happy with the parking and even happier with my room. The men all said beds were comfortable and room was clean. They have a nice hot tub and swimming pool. Check in was easy and host was pleasant.More</t>
   </si>
   <si>
-    <t>Daffylou</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r362079635-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -741,9 +821,6 @@
     <t>March 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Elijah R, General Manager at Holiday Inn Express Suites - Duncanville, responded to this reviewResponded April 7, 2016</t>
   </si>
   <si>
@@ -753,9 +830,6 @@
     <t>Upon arriving, after the drive from Michigan, I was not in the mood to deal with any nonsense. After all, I am a card carrying member.  The young man who worked the desk the evening of the 25th was so kind and welcoming. I truly felt WELCOMED! I was a little skeptical because of some the reviews I read. They must have stayed at another hotel.  I enjoyed my stay!More</t>
   </si>
   <si>
-    <t>glo62</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r348600861-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -783,9 +857,6 @@
     <t>You can count on Holiday Inn to be clean and the breakfast to be fresh.  This hotel exceeded the standard!  Everything was sparkling clean in spite of the large number of high school basketball players there.  The kitchen manager was kept very busy because there were lots of hungry teens - but the food never ran out and the manager was cheerful through it all.  The front desk staff was friendly and efficient.  Highly recommend this one.More</t>
   </si>
   <si>
-    <t>PrestonRobinsonIII</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r319444036-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -813,9 +884,6 @@
     <t>I visited this location on business. From initial appearance, the hotel looked very nice. The lobby area was cozy and tidy, the rooms were clean and the management seemed pleasant. Upon inspection of the room, one could notice sings of wear and minor unfinished upgrade issues. My room was nice. The beds were comfortable, the pillows were fully and I got a good nights sleep. The toilet however did run constantly and caused minor noise. The shower curtain needed dire replacement. The rings were one good tug from not being able to hold it up anymore. Overall, the stay was pleasant and if probably book again. The hotel was blocks away from Pappadeaux's seafood restaurant. More</t>
   </si>
   <si>
-    <t>CANDACE B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r318281495-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -834,9 +902,6 @@
     <t>An excellent place to stay! The hotel was clean and quiet and the maids and hotel staff were very friendly and helpful.  Bath and Body signature toiletries. WOW! Complimentary breakfast was delicious. From hot food to cold, so many choices all good.  Craig at the front desk attended to our every need. From housing our luggage until our ride arrived to exchanging bills for coins for the vending machine. We thank him again.  And we can not forget the chocolate chip cookies at the front desk at check in. Thanks to all staff members for making our stay unforgettable!More</t>
   </si>
   <si>
-    <t>1gr8dancer</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r300321650-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -864,9 +929,6 @@
     <t>I book this room in July 2015 and was quoted a rate of $68 a night. I took down the confirmation number not realizing I never received an email confirmation. I checked in on August 13th with no problems. The room was clean, comfortable and suited my needs. There was a faulty fire alarm that went off at 4:30 am Saturday morning, and my television did not work on Saturday. After repeated call to the desk they sent someone to reprogram it. On Saturday night into early Sunday morning the phone in my room rang repeatedly and I called the front desk to complain. I was assured my room had not been called. The last call was at about 5 am and I again called the desk to complain. Again told no one had called my room.  The front desk then called me at 5:45 am to ask me if I still wanted my 7:30 am wake up call! Upon checking out I found my room rate charge was $78 nightly. I asked for a manager and was told by the teeny bopper working the desk, " Managers don't work on the weekends." No week in manager, really? I'll always get an email confirmation from now on.More</t>
   </si>
   <si>
-    <t>Bruce P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r291789491-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -889,9 +951,6 @@
   </si>
   <si>
     <t>I like the The place it was your standard holiday inn in the hood didn't smell funny was fairly clean good bargain for that side of town very friendly customer service breakfast was the same O same O pancake machine yogurt milk everything was freshMore</t>
-  </si>
-  <si>
-    <t>CharlieCN</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r290771905-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
@@ -927,9 +986,6 @@
 So as not to write a book, here's a summary of what we had to do before we could settle into our room:  1) empty the trash cans by the desk and in the bathroom.  2) Clean the toothpaste off the inside and outside of the bathroom door - surprisingly, the mirror was clean.  3) Decided not to put our clean clothes in the dirty drawers.  4) Clean the oily residue and hairs off the hair dryer.  5) Wipe out the...This hotel has GREAT BONES - it's structurally pleasing and very well laid-out and planned.  However, it is in serious need of attention, maintenance, cleaning, and updating/renovating.The first thing that greeted us when we walked into the lobby was the musty, almost "moldy", smell of an old building.  I looked over, and there was Ayana at the front desk who is STELLAR at customer service.  Could almost ignore the smell as she welcomed me in.  Almost.  Ayanna, Dorothy (the breakfast lady), Ian (front desk), Cihrag (front desk) are SUPER pleasant and focused on providing the personal interaction that separates IHG from other brands in a positive way. The WiFi works AWESOME, and the channel selection is GREAT!  The TVs are SUPER, the only minor annoyance is there was only one remote.  And we forget to take it with us to the bedroom (we booked a 2-room suite), so one of us has to get up to get it. So as not to write a book, here's a summary of what we had to do before we could settle into our room:  1) empty the trash cans by the desk and in the bathroom.  2) Clean the toothpaste off the inside and outside of the bathroom door - surprisingly, the mirror was clean.  3) Decided not to put our clean clothes in the dirty drawers.  4) Clean the oily residue and hairs off the hair dryer.  5) Wipe out the hairs in the tub.  6) Figure out how to turn off the sink faucet - it leaks.  7) Pick up popcorn kernels and staples out of the carpet.  8) Clean out the microwave.  9) Wipe down the cabinets under the wet bar's sink - it smelled pretty bad.  10) Argue about whether or not to find another hotel.  I lost the argument.This is a hotel that I could NEVER walk barefoot in!  Flip flops everywhere!   The wet bar is nice, but there is no lighting, so it's dark when the sun goes down.  The couch is old and used beyond it's life-span … when you sit on it, you SINK down in it - ick.  You could sit on the edge of either the far left or far right sides, against the arm rests - but they're stained and have an "off" smell.  All of our walls and corners have dings and smudges.Although the air conditioning works AWESOME, the vents are so dirty that you can see the dust balls and watch as dust is blown from the unit into the air.  The pool looked clean and maintained - my husband enjoyed the pool.  However, the pool area, like the hotel, needs some attention.  It has a great layout and is well-planned, however the tables need a good scrubbing (there was chewing gum on the top of one table, and a greasy substance on another that had collected bugs &amp; grit), the grill (which is a nice addition) is just kind of hanging out as an afterthought, there were piles of towels left on the green space for a couple of days, and the grass-weed mix needed mowing.  The trees in the pool and parking areas are in desperate need of trimming.They don't have express check-out.  When I checked out, Cihrag asked me how our stay was, my response was they customer service was great, the cleanliness, not so much.  He just apologized for housekeeping.  Is it really housekeeping?  Why isn't the management holding the housekeeping staff accountable?More</t>
   </si>
   <si>
-    <t>natalies428</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r288916917-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -975,9 +1031,6 @@
     <t>We chose this hotel for the close proximity to the Potters House....as the reputation of HI, it was clean, friendly and efficient staff and reasonably priced....although I think it's time for the mattresses to be replaced, it may just be a personal preference for firmer mattresses.....although, we didn't request it when making the reservation, when checking in, we asked for a handicap accessible room and it was not a problem, at no additional charge.More</t>
   </si>
   <si>
-    <t>P G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r263227283-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -1005,7 +1058,253 @@
     <t>I am always pleased with Holiday Inn.-but this visit was so disappointing.The tv color was green,the refrigerator was loud-so we unplugged it and there were multiple coils of pubic hair in the bathroom.The curtains in the room were sheer -so there was no privacy.ughMore</t>
   </si>
   <si>
-    <t>George B</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r261126534-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>261126534</t>
+  </si>
+  <si>
+    <t>03/22/2015</t>
+  </si>
+  <si>
+    <t>Bump in the Night</t>
+  </si>
+  <si>
+    <t>This was a disappointing stay.  The front desk did let us check in early.   We had a group reservation for a team meet.  We had rooms all over the hotel.  We had 6 places to sleep in each room,but only two sets of towels.  The music for the outside lobby blared all night.  We could feel the beat in the bed.  Do not accept rooms 226 or 326 if you desire to sleep.We had a hard next day due to the lack of sleep..MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Elijah R, General Manager at Holiday Inn Express Suites - Duncanville, responded to this reviewResponded March 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2015</t>
+  </si>
+  <si>
+    <t>This was a disappointing stay.  The front desk did let us check in early.   We had a group reservation for a team meet.  We had rooms all over the hotel.  We had 6 places to sleep in each room,but only two sets of towels.  The music for the outside lobby blared all night.  We could feel the beat in the bed.  Do not accept rooms 226 or 326 if you desire to sleep.We had a hard next day due to the lack of sleep..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r257383835-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>257383835</t>
+  </si>
+  <si>
+    <t>03/02/2015</t>
+  </si>
+  <si>
+    <t>travel guru</t>
+  </si>
+  <si>
+    <t>This is a clasic holiday inn express, fairly new, ver clean and no smells, AC is a bit loud but common in these hotels, well equipped with flat screen great wifi in room and free, desk fridge microwave, iron, well equipped bathroom and super comfortable beds with 4 large soft pillows. Linen is fresh and new, towels normal. Carpet is clean with no smells, hallwaynthe same, nice reception area, great service, fresh cookies at reception. Breakfast is ok and basic. Good experience and will be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>Elijah R, General Manager at Holiday Inn Express Suites - Duncanville, responded to this reviewResponded March 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 4, 2015</t>
+  </si>
+  <si>
+    <t>This is a clasic holiday inn express, fairly new, ver clean and no smells, AC is a bit loud but common in these hotels, well equipped with flat screen great wifi in room and free, desk fridge microwave, iron, well equipped bathroom and super comfortable beds with 4 large soft pillows. Linen is fresh and new, towels normal. Carpet is clean with no smells, hallwaynthe same, nice reception area, great service, fresh cookies at reception. Breakfast is ok and basic. Good experience and will be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r250384506-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>250384506</t>
+  </si>
+  <si>
+    <t>01/21/2015</t>
+  </si>
+  <si>
+    <t>Perfect for In-Town Repose</t>
+  </si>
+  <si>
+    <t>I'd been having trouble sleeping for several nights.  My husband suggested I grab a room nearby and chill for the night.  So I used a site never used before - Hotwire - and grabbed a room at this Holiday Inn for a pretty reasonable price.  Check-in was very quick and smooth...pleasant greeting from reception.  The room was clean, bed was comfortable and the heating/air unit worked well.  I missed the breakfast because I slept over.  So guess it served its purpose!  I'd recommend it to visitors.  Also, lots of restaurants not far.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>I'd been having trouble sleeping for several nights.  My husband suggested I grab a room nearby and chill for the night.  So I used a site never used before - Hotwire - and grabbed a room at this Holiday Inn for a pretty reasonable price.  Check-in was very quick and smooth...pleasant greeting from reception.  The room was clean, bed was comfortable and the heating/air unit worked well.  I missed the breakfast because I slept over.  So guess it served its purpose!  I'd recommend it to visitors.  Also, lots of restaurants not far.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r240529000-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>240529000</t>
+  </si>
+  <si>
+    <t>11/19/2014</t>
+  </si>
+  <si>
+    <t>Dtolen truck</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel for a few years off and on when I go to the metroplex on business. I chose to over look the fresh mowed grass, smokey rooms and drippy faucets as part of the deal. But during my last stay my dodge truck was stolen out of the parking lot. The staff were not helpful at all to me or to the police. One video was finally presented that was so grainy and far away that it was useless as evidence. I would not recommend any one stay there who would like to feel safe or cared for by the staff!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Elijah R, General Manager at Holiday Inn Express Suites - Duncanville, responded to this reviewResponded November 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 25, 2014</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel for a few years off and on when I go to the metroplex on business. I chose to over look the fresh mowed grass, smokey rooms and drippy faucets as part of the deal. But during my last stay my dodge truck was stolen out of the parking lot. The staff were not helpful at all to me or to the police. One video was finally presented that was so grainy and far away that it was useless as evidence. I would not recommend any one stay there who would like to feel safe or cared for by the staff!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r233647645-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>233647645</t>
+  </si>
+  <si>
+    <t>10/10/2014</t>
+  </si>
+  <si>
+    <t>DISAPPOINTED</t>
+  </si>
+  <si>
+    <t>Verry disapointed in this Holiday Inn. I quested a non smoking room, i didn't get one. Tell the next day. The tv didnt work in the new room. So Darryl had to keep going up to our room and fix it. He was the only good thing about our stay. We stayed for 3 days. They would not give us any credit on our room because we made our reservation through a second party. Hotelrates.comI will not be visiting this location ever! I paid $109 a night. Sad....MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Elijah R, General Manager at Holiday Inn Express Suites - Duncanville, responded to this reviewResponded October 16, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 16, 2014</t>
+  </si>
+  <si>
+    <t>Verry disapointed in this Holiday Inn. I quested a non smoking room, i didn't get one. Tell the next day. The tv didnt work in the new room. So Darryl had to keep going up to our room and fix it. He was the only good thing about our stay. We stayed for 3 days. They would not give us any credit on our room because we made our reservation through a second party. Hotelrates.comI will not be visiting this location ever! I paid $109 a night. Sad....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r227557776-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>227557776</t>
+  </si>
+  <si>
+    <t>09/07/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice place </t>
+  </si>
+  <si>
+    <t>This is a nice hotel in what seems like a bad area of the region. The breakfast is good, the room is nice and the coffee is hot. The staff is very courteous and helpful. It's convenient to Redbird Airport. I recommend this place for the biz traveler. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>This is a nice hotel in what seems like a bad area of the region. The breakfast is good, the room is nice and the coffee is hot. The staff is very courteous and helpful. It's convenient to Redbird Airport. I recommend this place for the biz traveler. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r223387466-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>223387466</t>
+  </si>
+  <si>
+    <t>08/21/2014</t>
+  </si>
+  <si>
+    <t>Not a good experience</t>
+  </si>
+  <si>
+    <t>I wrote this review 3 months ago in one of those email invite links that I received after my stay, but never heard anything back so I’m posting it here. Our stay was fine until it was time to take showers. That was when we discovered that we did not have any hot water in our room. We checked the bathroom tub, bathroom sink and sink by the coffee pot in the room (which was clogged) and we had absolutely no hot water.I called to report this to the receptionist and see if we might be able to use a vacant room to take a quick shower and return to our original room since it was 10:30pm and we were completely unpacked and settled in. They told me no and that I would have to come downstairs to pick up a key for another room.  This was obviously very inconvenient. The only room they said was available was a 2 Queen studio (our original room we had and reserved was 1 King studio.)We spoke with 2 different receptionists that night (I think they were changing shifts) and at no time over the phone or face to face at the desk did they apologize or show any concern. They we both indifferent and careless.This entire experience gave us a difficult night and reduced our quality of sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Elijah R, Manager at Holiday Inn Express Suites - Duncanville, responded to this reviewResponded August 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 22, 2014</t>
+  </si>
+  <si>
+    <t>I wrote this review 3 months ago in one of those email invite links that I received after my stay, but never heard anything back so I’m posting it here. Our stay was fine until it was time to take showers. That was when we discovered that we did not have any hot water in our room. We checked the bathroom tub, bathroom sink and sink by the coffee pot in the room (which was clogged) and we had absolutely no hot water.I called to report this to the receptionist and see if we might be able to use a vacant room to take a quick shower and return to our original room since it was 10:30pm and we were completely unpacked and settled in. They told me no and that I would have to come downstairs to pick up a key for another room.  This was obviously very inconvenient. The only room they said was available was a 2 Queen studio (our original room we had and reserved was 1 King studio.)We spoke with 2 different receptionists that night (I think they were changing shifts) and at no time over the phone or face to face at the desk did they apologize or show any concern. They we both indifferent and careless.This entire experience gave us a difficult night and reduced our quality of sleep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r211993821-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>211993821</t>
+  </si>
+  <si>
+    <t>06/25/2014</t>
+  </si>
+  <si>
+    <t>The Little Things Count and They are Lacking Here</t>
+  </si>
+  <si>
+    <t>Recently stayed at this hotel on business.  I ran out of tooth paste on the first day of my visit and  asked the front desk if they had some available.  I was told " they had to order some.  Worked late and asked again on the second day.  Was told the same thing, "they had to order some".I went to the breakfast area for some yogurt, and found they were out,  Again told "they had to order some".  I think this establishment has to understand the little things do count to any traveler and they should do as their Hospitality Promise states "call the front desk for a replacement.  Everything else was as expected.The hotel is a standard Holiday Inn Express, but lacking in the little things. All else as expected.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Suites - Duncanville, responded to this reviewResponded July 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2014</t>
+  </si>
+  <si>
+    <t>Recently stayed at this hotel on business.  I ran out of tooth paste on the first day of my visit and  asked the front desk if they had some available.  I was told " they had to order some.  Worked late and asked again on the second day.  Was told the same thing, "they had to order some".I went to the breakfast area for some yogurt, and found they were out,  Again told "they had to order some".  I think this establishment has to understand the little things do count to any traveler and they should do as their Hospitality Promise states "call the front desk for a replacement.  Everything else was as expected.The hotel is a standard Holiday Inn Express, but lacking in the little things. All else as expected.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r206258919-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>206258919</t>
+  </si>
+  <si>
+    <t>05/19/2014</t>
+  </si>
+  <si>
+    <t>Great Place to Stay</t>
+  </si>
+  <si>
+    <t>We have stayed at a lot of HIE, but this one was one of the best.  Pretty new, probably 2-3 years old.  Room was perfect, mattress was great, very quiet.  Was a little hard to find because it was on the entrance ramp to 67, but got there and glad I booked this hotel.  I would recommend this hotel to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>Elijah R, General Manager at Holiday Inn Express Suites - Duncanville, responded to this reviewResponded May 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 27, 2014</t>
+  </si>
+  <si>
+    <t>We have stayed at a lot of HIE, but this one was one of the best.  Pretty new, probably 2-3 years old.  Room was perfect, mattress was great, very quiet.  Was a little hard to find because it was on the entrance ramp to 67, but got there and glad I booked this hotel.  I would recommend this hotel to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r204493107-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>204493107</t>
+  </si>
+  <si>
+    <t>05/07/2014</t>
+  </si>
+  <si>
+    <t>Ok, good access to Methodist Charlton</t>
+  </si>
+  <si>
+    <t>We stayed here at physician recommendation for a procedure at close-by Methodist Charlton.  Good news is we got an excellent rate. This is a standard HIE. Rooms big and clean.   High def channels. Breakfast was nice enough. Immediate neighborhood a tad spotty (next door is a boarded up former drive-through liquor store). Wi-fi is unreliable. Pool is nice, though the " fitness center" is bad:  3 pieces of equipment, one of which was out of order, no towels. All in all, acceptable.MoreShow less</t>
+  </si>
+  <si>
+    <t>Elijah R, General Manager at Holiday Inn Express Suites - Duncanville, responded to this reviewResponded May 13, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 13, 2014</t>
+  </si>
+  <si>
+    <t>We stayed here at physician recommendation for a procedure at close-by Methodist Charlton.  Good news is we got an excellent rate. This is a standard HIE. Rooms big and clean.   High def channels. Breakfast was nice enough. Immediate neighborhood a tad spotty (next door is a boarded up former drive-through liquor store). Wi-fi is unreliable. Pool is nice, though the " fitness center" is bad:  3 pieces of equipment, one of which was out of order, no towels. All in all, acceptable.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r200014438-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
@@ -1035,9 +1334,6 @@
     <t>Very clean and spacious room, quiet with lots of restaurants near by. Friendly staff. Only problem was that the entrance to the parking lot is on an entrance ramp, I missed it the first time :( If you have a GPS you won't have a problem :)More</t>
   </si>
   <si>
-    <t>off2h2oski</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r199795623-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -1053,15 +1349,9 @@
     <t>I've stayed in A LOT of Holiday Inn Expresses.  My room here was arguably the nicest one I've found so far....actually nicer then the majority of Crown Plaza rooms I've stayed in.  Place was whisper quiet and there are a variety of restaurants nearby.  Staff came across as rather stoic, but were helpful nonetheless.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>I've stayed in A LOT of Holiday Inn Expresses.  My room here was arguably the nicest one I've found so far....actually nicer then the majority of Crown Plaza rooms I've stayed in.  Place was whisper quiet and there are a variety of restaurants nearby.  Staff came across as rather stoic, but were helpful nonetheless.More</t>
   </si>
   <si>
-    <t>acdfpic</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r191094439-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -1089,9 +1379,6 @@
     <t>An average HI Express.   Good room,  not too noisy, and decent price. The one exception...and it's a good one...was the breakfast room attendant.   What a delight!  Being greeted with a big smile and a cheerful good morning is great way to start the day!More</t>
   </si>
   <si>
-    <t>Cedar Hill T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r180750190-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -1119,9 +1406,6 @@
     <t>We stayed on 10/11/13 to celebrate our daughter's 13th b-day.  It started with the inaccurate room reservations, receiving a COMP room from Tasha misidentifying herself as a Manager, being checked out of the room that was supposely COMP for another day, staff stealing personal and expensive items from the room, Valeria admitting the housekeeping staff stole the items, contacting the local police to file a report and charges to the end result NO management contact, follow-up or reasonable accommodation to resolve all these inappropriate and unprofessional incidents from his staff.  The night front desk clerk made every attempt to fix her co-workers mistakes, locate one item from my "stolen" belongings and even printing a receipt from my stay that I never received.  This was the WORST experience I have ever encountered at a hotel stay and would not advise my worst enemy to book reservations or visit this location!  I feel so VIOLATED, angry, frustrated and for a better taste of words - FURIOUS that Holiday Inn would allow their employees to steal from their guest and have no consequences or return any stolen items.  THE SERVICE AND STAY IS AWFUL......More</t>
   </si>
   <si>
-    <t>franklinmilford</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r178359431-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -1146,9 +1430,6 @@
     <t>Having stayed here on othr visits to area, I was happy when I viewed my travel plans.....wrong!!!! This has been one trip from hell. It started out with a concussion on a wierdly placed soap dish at eye level to be told too bad, no insurance here. They were nice enoughto upgrade me on point room choice, but that just meant more space for thigs to go wrong. The toilet stayed clogged. The sink in the wet bar never drained. The pillows had visible chunks of foam (whatever happened to HIE wonderful pillows?). The television (or cable never worked aboved channel 4 (limiting viewing pleasure!) When the signal on tv was coming in, only half the screen worked. The air conditioner had to be replaced day 2 as it didnt work. The shower drained so slowly I stood in inches of water until it finally stopped working.They had no stand by immenities,ie sewing kit,toothbrush. The hot tub had no dial, so unless you brought pliers with you, too bad. This is just the tip of the iceberg. Management didnt care. When Kieth was shown my injuries, he literally shrugged his shoulders and returned behing the partition. All complaints about things not working were "made note of" and never passed on. Maintenance leaves at 5, so get your work orders in early. A standard answer was we can move you to another room. 12 times in one month? No thanks. I...Having stayed here on othr visits to area, I was happy when I viewed my travel plans.....wrong!!!! This has been one trip from hell. It started out with a concussion on a wierdly placed soap dish at eye level to be told too bad, no insurance here. They were nice enoughto upgrade me on point room choice, but that just meant more space for thigs to go wrong. The toilet stayed clogged. The sink in the wet bar never drained. The pillows had visible chunks of foam (whatever happened to HIE wonderful pillows?). The television (or cable never worked aboved channel 4 (limiting viewing pleasure!) When the signal on tv was coming in, only half the screen worked. The air conditioner had to be replaced day 2 as it didnt work. The shower drained so slowly I stood in inches of water until it finally stopped working.They had no stand by immenities,ie sewing kit,toothbrush. The hot tub had no dial, so unless you brought pliers with you, too bad. This is just the tip of the iceberg. Management didnt care. When Kieth was shown my injuries, he literally shrugged his shoulders and returned behing the partition. All complaints about things not working were "made note of" and never passed on. Maintenance leaves at 5, so get your work orders in early. A standard answer was we can move you to another room. 12 times in one month? No thanks. I noticed in the prep area for breakfast that the uncooked cinnamon buns were kept on floor at room temp.....health department are you listening? The list just goes on, and staff either just doesnt care, or, they just dont care. Upon entering lobby, an overflowing ashtray greets you, in addition to ground around it being littered with butts. The place just never felt clean up to HIE usual standards. It just amazes me that with all these issues, night shift still had time to either sit in lobby and watch tv or sleep behind partition. Either way, this visit ensures I dont need to spend my money at this chain any more. And as a final note, if there is a response from an "agent" to this post, you are just as guilty. Even though a serious injury ocurred on one of your properties, and a case number was issued, no one has bothered to follow up with me. Too bad, I really liked this place.More</t>
   </si>
   <si>
-    <t>Ms_C_2112</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r177362148-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -1167,9 +1448,6 @@
     <t>September 2013</t>
   </si>
   <si>
-    <t>Brett S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r168650414-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -1197,9 +1475,6 @@
     <t>I am a platinum members that travels a lot and stays at many different Holidays Inn. I never write reviews becuase my experience with Holiday Inn is always excellent , except this stay. I checked into my room at 3am and requested a late check out which is 2pm for priorty members. Around 9 am ( 6 hours after I checked in) I was woken up by loud music. I come to find out that the adjacent wall to my room is a conference room that is rented to a church on Sunday morning. The church has loud speakers and I was not able to go back to sleep. I contacted the manager the following week and asked why I was not warned? He was very indifferent to my complaint. I suggested people be warned that Sunday there is loud music. He disagreed with me. I could not believe the way I was treated by the manager. The manager acted like I was taking up his valuable time, he did not care about discussing my problem, he rather had me go complain to Holiday Inn.This is not a typical way Holiday Inn handles complaints. I called the Priorty Deparment and money is being refunded. I would not recommend you stay on a Saturday night on the first 2 floors unless you are going to wake up by 8am, becuase the music will wake you up.Reason for Visit:PleasureMore</t>
   </si>
   <si>
-    <t>HisBabyJohnson</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r164207918-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -1224,9 +1499,6 @@
     <t>My husband and I booked this hotel through Hotwire.com so we weren't sure what hotel we would get until we paid. For $84 tax and all this hotel was very good for the price. The breakfast was average, the bed pretty comfortable and it was very clean. Nothing to write home about, but no complaints either. As to be expected for a Holiday Inn Express. I expected superb cinnamon rolls after reading other reviews, but they could have been much better. One thing that was very well appreciated was free late checkout (2:00).  My husband and I really appreciated that and we enjoyed the whirlpool!More</t>
   </si>
   <si>
-    <t>David I</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r154426047-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -1252,9 +1524,6 @@
   </si>
   <si>
     <t>Fist off, let me preface this brief review with the holte, Holiday Inn Express in Duncanville Texas is very clean and the associates are very friendly.  The bed however, was the most unfortable bed that I have ever been in (i would have said slept in however, i didn't get any sleep).  Secondly, don't beleive the promise.  Every Holiday Inn has one of those plastic signs in the bathroom "Hospitality Promise" "Forget Something", if you have ever stayed at a Holiday Inn property, I am sure you have seen them.  For the first time, I ad forgotten my toothbrush.  No worry, they have the hospitality promise.....  Not this hotel.  Unfortunately the only item the front desk person had in her drawer was toothpaste...  Plus, the spa / pool closed.More</t>
-  </si>
-  <si>
-    <t>Gadget665</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r147562309-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
@@ -1282,9 +1551,6 @@
 Also, everything is on the service roads along the highway and the service roads are one way.  So, let's say you want to go to the...I have yet to stay in a bad Holiday in Suites.  My family stayed in the HI in De Soto in 2010 and had a great stay.  For this hotel, we got the mini-suite like we did in De Soto.  There were four of us, so the mini-suite was a requirement.  The price ended up being lower than the best price I could find online -- another reason to be pleased.  The breakfast is included and has a good variety of items, for the meat eater to the meat avoiders.  The lobby area is really nice and great for meeting with other guests.  The rooms were very nice.The only problem I had was location.  This hotel is right on Hwy 67 and it almost seems like there's more traffic there on a major highway.  The sound-proofing is okay, but it could be better.  GET A ROOM ON THE BACKSIDE IF AT ALL POSSIBLE!!!  One side note.  For some reason, they pipe music to speakers on the front side of the building.  I'm not sure why since there's already enough "music" from the car and truck noise on the highway.  My room was above the lobby and had to tell them to turn it down.  They were really nice and just turned it off.Also, everything is on the service roads along the highway and the service roads are one way.  So, let's say you want to go to the Jack In The Box that's a few building up from the hotel.  You drive to it, but to get back to the hotel, you have to keep driving up to the next traffic light, cross Hwy 67, drive back to the next traffic light, cross again, then up to the hotel.  A bit of an inconvenience to have to make this loop, but it is what it is.  I will agree with the other writers that there are a lot stores and restaurants in the area, so you don't have to go far.  You just have to deal with Hwy 67 and the service roads.  Overall, it was a good experience.More</t>
   </si>
   <si>
-    <t>Shaylynn0803</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r147093111-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -1321,9 +1587,6 @@
     <t>I stayed here for over a week and only have one small complaint- no ashtray in the smoking room. But even that was accomodated for!!! Non-smokers fear not, this place does not smell, and these rooms will probably be phasing out. I had doubts from reading prior posts, and was slightly paanoid, but this was unjust. I felt perfectly safe, and saw no signs of anyone complaining of vehicle break-ins,etc. I was greeted warmly and check in was a breeze. A relitively small foyer, but the breakfast area makes up for it. The room was standard HIE quality, better than some in this chain, better than majority of other chains in this price point. All staff members were friendly, stopping to chat, give directions (and short cuts!), recommend restaurants, etc. Such a plus over the standard shoulder shrug! This hotel sits right off the freeway, but noise was never an issue. The breakfast bar had the required cinnamon rolls, hot, gooey,tender....yum! There was also make your own waffles, sausage and bacon, eggs, breads, juices and milk with hot and cold cereal, and oh did I mention the cinnamon rolls? A great stay overall, if I made my own reservations I would definitely stay here when working in this area!More</t>
   </si>
   <si>
-    <t>kara b</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r129645951-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -1345,9 +1608,6 @@
     <t>I just recently stayed at the Express in Duncanville, and the staff was very professional. I have stayed here before and I loved it even more this time. They have just completed a beautiful renovation of new furniture, carpet. It is so fresh and new.... If you have ever stayed at a holiday inn, i promise these are the biggest rooms i have ever seen in a hotel. Now they are so small, but not this property..I wish i had pictures I could load to show you. I stay here to see my family so that they can visit their grandkids and they always have fun in the indoor spa or pool. The breakfast is very good and I always feel safe. You should try it, they have a great staff and comfortable beds.More</t>
   </si>
   <si>
-    <t>Elementals</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r105578341-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -1366,9 +1626,6 @@
     <t>We checked in at almost midnight. we parked front and center, you could see our car and clearly see UNDER our car from the double doors.  8 am we out, started our cat and it sounded like a Harley.  Someone used a hacksaw and cut  the catalytic from our exhaust system.  Have you ever heard metal being sawed into?!? Not a quick/subtle crime.  Inside job?  You have to wonder!!  Desk didn't seem to care about anything but keeping it quiet.  They were NOT surprised.  Said cameras are only on sides of bldg.  Hmmmm.  Why would a thief choose a car in the light at the front door unless they knew they'd be safe?More</t>
   </si>
   <si>
-    <t>abbey101</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r81781373-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -1390,9 +1647,6 @@
     <t>I am a frequent traveler and travel all over the country. The hotel was an average hotel, i stayed there because it was closer to where i was working. My truck was parked on the side of the hotel and during the night my window was busted out and my stereo was stolen as well as several personal items. What fun to wake up to. When i notified the front desk to see if they had a camera on it they said they did not get it on camera. they acted as if it happend before and were like ok will call the police for ya!! i def dont recomend this stay.More</t>
   </si>
   <si>
-    <t>txjtr</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r45420794-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -1411,9 +1665,6 @@
     <t>September 2009</t>
   </si>
   <si>
-    <t>BananaBuzzbomb</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r27197217-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -1432,9 +1683,6 @@
     <t>July 2008</t>
   </si>
   <si>
-    <t>coogie36</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r26851482-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -1456,9 +1704,6 @@
     <t>Because of my job, I stay in this hotel every week.  The people here are the nicest you could ever ask for!  They go out of their way to accomodate me and the odd schedule I have to keep due to my job.  My family and I enjoy traveling so stay in a lot of different hotels.  I can honestly say the people here are the nicest and the customer service is the BEST than in any hotel I have stayed in, in any country I have traveled to.  From the check in counter to the sweet little lady that prepares the free breakfast every morning.  The hotel is immaculate/clean, the beds very comfortable, a microwave and fridge in every room, free internet and a nice large desk to work at.  There is also a table (not rack) to sit your luggage on while you unpack.  The linens and pillows are upgraded and I don't sleep at home as well as I do here!  I would recommend this hotel to anyone!More</t>
   </si>
   <si>
-    <t>Borgo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r18247832-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -1474,9 +1719,6 @@
     <t>Several members of our family stayed here while we attended a family wedding.  The hotel was very nice and a wonderful value.  The rooms were very clean, nicely decorated and roomy.  The staff was helpful and we had no surprises in securing the rooms we had reserved.  After a hot Texas afternoon it was so pleasant to be in a comfortable, cool hotel with a spacious lobby to visit.  We would most certainly stay here again.  We had never stayed in a Holiday Inn Express but look forward to trying them again on our next trip.</t>
   </si>
   <si>
-    <t>ohsowonderfulme</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r17617798-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -1490,6 +1732,63 @@
   </si>
   <si>
     <t>a couple of years back i had no problems with this hotel because the staff was friendly, the rooms were clean, and besides the hiltons, it was my second best. However recently.............when i got in from a long drive i was expecting to rest in a comfortable hotel with no problems....boy was i ever so disappointed when i got to the room.. i actually had to relocate rooms because there were stains on the floor and an awful stinch in the room. i got to my second choice room and it was no better i was so mad that i checked out early and i will never return.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r7556884-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>7556884</t>
+  </si>
+  <si>
+    <t>05/06/2007</t>
+  </si>
+  <si>
+    <t>What A RipOff,Worst Hotel Ever!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>My family stayed at this hotel Thanksgiving week. And man oh man.First do not, I Repeat Do Not Call in Your Reservation. They got me that way.Their site didn’t accept online reservations. I wonder why. Because you have proof of the price quoted if you reserve online. They force you to call in so if they quote you a lower price, later on they can raise it when you arrive at the hotel. If you have to do it over the phone, Please make them fax a price on paper. Over the phone they force you to leave a credit card number. Then when you get the to hotel and see that’s its crappy. They won’t let you leave. They tell you if you leave and go to another hotel. They’ll still charge your card the full amount. They quoted me $300 over the phone and then charged me $570 once I arrived. And since I don’t have proof of the original quoted price because I called it in, my bank made me eat the difference. This hotel is a rip off and is not very clean. They don’t have the TV channels promised. The beds feels like bed bugs are on it. Do your self a favor and stay in downtown Dallas. You’ll be much happierMoreShow less</t>
+  </si>
+  <si>
+    <t>My family stayed at this hotel Thanksgiving week. And man oh man.First do not, I Repeat Do Not Call in Your Reservation. They got me that way.Their site didn’t accept online reservations. I wonder why. Because you have proof of the price quoted if you reserve online. They force you to call in so if they quote you a lower price, later on they can raise it when you arrive at the hotel. If you have to do it over the phone, Please make them fax a price on paper. Over the phone they force you to leave a credit card number. Then when you get the to hotel and see that’s its crappy. They won’t let you leave. They tell you if you leave and go to another hotel. They’ll still charge your card the full amount. They quoted me $300 over the phone and then charged me $570 once I arrived. And since I don’t have proof of the original quoted price because I called it in, my bank made me eat the difference. This hotel is a rip off and is not very clean. They don’t have the TV channels promised. The beds feels like bed bugs are on it. Do your self a favor and stay in downtown Dallas. You’ll be much happierMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r7402036-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>7402036</t>
+  </si>
+  <si>
+    <t>04/19/2007</t>
+  </si>
+  <si>
+    <t>What a great place to stay</t>
+  </si>
+  <si>
+    <t>What a great place to stay. I found this hotel on this website and I dont have any regrets staying there. I took my wife to Dallas for her birthday and we both determined that we would stay there again. The staff was wonderful the facilities such as the whirlpool and the gym were great. In addition to this was the great breakfast and the awesome central location. My only regret is that we didnt find this hotel sooner. Also, for you military travelers out there, they do have a military discount which is always good. Like I said, we will definitiely be staing there again. Jim</t>
+  </si>
+  <si>
+    <t>April 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d277879-r6165129-Holiday_Inn_Express_Suites_Duncanville-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>6165129</t>
+  </si>
+  <si>
+    <t>11/21/2006</t>
+  </si>
+  <si>
+    <t>Stay Smart!</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel at least 5 or 6 times on business since they opened two years ago.  The staff is absolutely the best I have ever seen anywhere, and the hotel is only a short 10 min drive to downtown.  I guess I see now what they mean on those commercials when they "Stay Smart," that is...why pay an extra $40-$50 / night elsewhere for less free amenities and the same rooms?  The hotel is elegant throughout and the rooms are very nice and spacious.  The pictures on their website are very reflective of how they actually look.  They provide free use of their business center, free internet access throughout the hotel (wireless and internet ports in each room), an indoor jacuzzi pool, workout room, and best of all the free continental breakfast (the cinnamon rolls are awesome)!  There is also free cable TV and HBO (I think about 60 some odd channels or so).  There are also a number of really good restaurants nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2006</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel at least 5 or 6 times on business since they opened two years ago.  The staff is absolutely the best I have ever seen anywhere, and the hotel is only a short 10 min drive to downtown.  I guess I see now what they mean on those commercials when they "Stay Smart," that is...why pay an extra $40-$50 / night elsewhere for less free amenities and the same rooms?  The hotel is elegant throughout and the rooms are very nice and spacious.  The pictures on their website are very reflective of how they actually look.  They provide free use of their business center, free internet access throughout the hotel (wireless and internet ports in each room), an indoor jacuzzi pool, workout room, and best of all the free continental breakfast (the cinnamon rolls are awesome)!  There is also free cable TV and HBO (I think about 60 some odd channels or so).  There are also a number of really good restaurants nearby.More</t>
   </si>
 </sst>
 </file>
@@ -2177,12 +2476,8 @@
       <c r="A5" t="n">
         <v>50471</v>
       </c>
-      <c r="B5" t="n">
-        <v>102035</v>
-      </c>
-      <c r="C5" t="s">
-        <v>71</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
@@ -2190,31 +2485,31 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
         <v>72</v>
       </c>
-      <c r="G5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>73</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>74</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>75</v>
-      </c>
-      <c r="L5" t="s">
-        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
         <v>61</v>
@@ -2229,57 +2524,53 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
+        <v>77</v>
+      </c>
+      <c r="X5" t="s">
         <v>78</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>79</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>50471</v>
       </c>
-      <c r="B6" t="n">
-        <v>155542</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
         <v>81</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="J6" t="s">
         <v>82</v>
       </c>
-      <c r="G6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>83</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>84</v>
-      </c>
-      <c r="K6" t="s">
-        <v>85</v>
-      </c>
-      <c r="L6" t="s">
-        <v>86</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O6" t="s">
         <v>61</v>
@@ -2294,25 +2585,21 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
+        <v>86</v>
+      </c>
+      <c r="X6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y6" t="s">
         <v>88</v>
-      </c>
-      <c r="X6" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>50471</v>
       </c>
-      <c r="B7" t="n">
-        <v>155543</v>
-      </c>
-      <c r="C7" t="s">
-        <v>91</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
@@ -2320,25 +2607,25 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" t="s">
         <v>92</v>
       </c>
-      <c r="G7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>93</v>
-      </c>
-      <c r="J7" t="s">
-        <v>94</v>
-      </c>
-      <c r="K7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L7" t="s">
-        <v>96</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
@@ -2355,25 +2642,21 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="X7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="Y7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>50471</v>
       </c>
-      <c r="B8" t="n">
-        <v>64905</v>
-      </c>
-      <c r="C8" t="s">
-        <v>100</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
@@ -2381,31 +2664,31 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" t="s">
+        <v>100</v>
+      </c>
+      <c r="L8" t="s">
         <v>101</v>
-      </c>
-      <c r="G8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" t="s">
-        <v>102</v>
-      </c>
-      <c r="J8" t="s">
-        <v>103</v>
-      </c>
-      <c r="K8" t="s">
-        <v>104</v>
-      </c>
-      <c r="L8" t="s">
-        <v>105</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O8" t="s">
         <v>52</v>
@@ -2420,25 +2703,21 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="X8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="Y8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>50471</v>
       </c>
-      <c r="B9" t="n">
-        <v>155544</v>
-      </c>
-      <c r="C9" t="s">
-        <v>109</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
@@ -2446,7 +2725,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -2455,22 +2734,22 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="J9" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="K9" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="L9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="O9" t="s">
         <v>52</v>
@@ -2485,25 +2764,21 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="X9" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="Y9" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>50471</v>
       </c>
-      <c r="B10" t="n">
-        <v>155545</v>
-      </c>
-      <c r="C10" t="s">
-        <v>119</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
@@ -2511,7 +2786,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -2520,22 +2795,22 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="J10" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="K10" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="L10" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="O10" t="s">
         <v>61</v>
@@ -2550,25 +2825,21 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="X10" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="Y10" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>50471</v>
       </c>
-      <c r="B11" t="n">
-        <v>155546</v>
-      </c>
-      <c r="C11" t="s">
-        <v>129</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
@@ -2576,7 +2847,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -2585,25 +2856,25 @@
         <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="J11" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="K11" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="L11" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="O11" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2615,25 +2886,21 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="X11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="Y11" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>50471</v>
       </c>
-      <c r="B12" t="n">
-        <v>65629</v>
-      </c>
-      <c r="C12" t="s">
-        <v>140</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
@@ -2641,7 +2908,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -2650,61 +2917,51 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="J12" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="K12" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="L12" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="O12" t="s">
-        <v>52</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="n">
-        <v>3</v>
-      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>3</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="X12" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="Y12" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>50471</v>
       </c>
-      <c r="B13" t="n">
-        <v>155547</v>
-      </c>
-      <c r="C13" t="s">
-        <v>150</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
@@ -2712,7 +2969,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -2721,61 +2978,47 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="J13" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="K13" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="L13" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
-      </c>
-      <c r="N13" t="s">
-        <v>146</v>
-      </c>
-      <c r="O13" t="s">
-        <v>52</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="n">
-        <v>4</v>
-      </c>
+      <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="X13" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="Y13" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>50471</v>
       </c>
-      <c r="B14" t="n">
-        <v>50857</v>
-      </c>
-      <c r="C14" t="s">
-        <v>159</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
@@ -2783,7 +3026,7 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="G14" t="s">
         <v>45</v>
@@ -2792,25 +3035,25 @@
         <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="J14" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="K14" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="L14" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="O14" t="s">
-        <v>61</v>
+        <v>155</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2822,25 +3065,21 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="X14" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="Y14" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>50471</v>
       </c>
-      <c r="B15" t="n">
-        <v>155548</v>
-      </c>
-      <c r="C15" t="s">
-        <v>169</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
@@ -2848,7 +3087,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -2857,32 +3096,38 @@
         <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="J15" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="K15" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="L15" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N15" t="s">
+        <v>164</v>
+      </c>
+      <c r="O15" t="s">
         <v>165</v>
       </c>
-      <c r="O15" t="s">
-        <v>61</v>
-      </c>
-      <c r="P15" t="s"/>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
@@ -2893,19 +3138,15 @@
         <v>167</v>
       </c>
       <c r="Y15" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>50471</v>
       </c>
-      <c r="B16" t="n">
-        <v>113804</v>
-      </c>
-      <c r="C16" t="s">
-        <v>176</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
@@ -2913,7 +3154,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -2922,26 +3163,22 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="J16" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="K16" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="L16" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s">
-        <v>165</v>
-      </c>
-      <c r="O16" t="s">
-        <v>52</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
@@ -2952,25 +3189,21 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="X16" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="Y16" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>50471</v>
       </c>
-      <c r="B17" t="n">
-        <v>8988</v>
-      </c>
-      <c r="C17" t="s">
-        <v>185</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
@@ -2978,7 +3211,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -2987,22 +3220,22 @@
         <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J17" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="K17" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="L17" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="O17" t="s">
         <v>52</v>
@@ -3017,31 +3250,27 @@
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="X17" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="Y17" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>50471</v>
       </c>
-      <c r="B18" t="n">
-        <v>6838</v>
-      </c>
-      <c r="C18" t="s">
-        <v>195</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
@@ -3049,7 +3278,7 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="G18" t="s">
         <v>45</v>
@@ -3058,55 +3287,57 @@
         <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="J18" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="K18" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="L18" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="O18" t="s">
-        <v>61</v>
-      </c>
-      <c r="P18" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
       <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="X18" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="Y18" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>50471</v>
       </c>
-      <c r="B19" t="n">
-        <v>43931</v>
-      </c>
-      <c r="C19" t="s">
-        <v>205</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
@@ -3114,7 +3345,7 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="G19" t="s">
         <v>45</v>
@@ -3123,22 +3354,22 @@
         <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="J19" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="K19" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="L19" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O19" t="s">
         <v>61</v>
@@ -3153,25 +3384,21 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="X19" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="Y19" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>50471</v>
       </c>
-      <c r="B20" t="n">
-        <v>71472</v>
-      </c>
-      <c r="C20" t="s">
-        <v>214</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
@@ -3179,7 +3406,7 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="G20" t="s">
         <v>45</v>
@@ -3188,22 +3415,22 @@
         <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="J20" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="K20" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="L20" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="O20" t="s">
         <v>61</v>
@@ -3218,25 +3445,21 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="X20" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="Y20" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>50471</v>
       </c>
-      <c r="B21" t="n">
-        <v>155549</v>
-      </c>
-      <c r="C21" t="s">
-        <v>224</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
@@ -3244,7 +3467,7 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="G21" t="s">
         <v>45</v>
@@ -3253,25 +3476,25 @@
         <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="J21" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="K21" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="L21" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="O21" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3283,25 +3506,21 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="X21" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="Y21" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>50471</v>
       </c>
-      <c r="B22" t="n">
-        <v>155550</v>
-      </c>
-      <c r="C22" t="s">
-        <v>234</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
@@ -3309,7 +3528,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="G22" t="s">
         <v>45</v>
@@ -3318,61 +3537,57 @@
         <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="J22" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="K22" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="L22" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="O22" t="s">
-        <v>241</v>
+        <v>52</v>
       </c>
       <c r="P22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q22" t="s"/>
-      <c r="R22" t="n">
-        <v>4</v>
-      </c>
-      <c r="S22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="X22" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="Y22" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>50471</v>
       </c>
-      <c r="B23" t="n">
-        <v>155551</v>
-      </c>
-      <c r="C23" t="s">
-        <v>245</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
@@ -3380,7 +3595,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="G23" t="s">
         <v>45</v>
@@ -3389,59 +3604,51 @@
         <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="J23" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="K23" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="L23" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="O23" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="P23" t="s"/>
-      <c r="Q23" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>5</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="X23" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="Y23" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>50471</v>
       </c>
-      <c r="B24" t="n">
-        <v>50809</v>
-      </c>
-      <c r="C24" t="s">
-        <v>255</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
@@ -3449,7 +3656,7 @@
         <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="G24" t="s">
         <v>45</v>
@@ -3458,22 +3665,22 @@
         <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="J24" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="K24" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="L24" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="O24" t="s">
         <v>61</v>
@@ -3488,25 +3695,21 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="X24" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="Y24" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>50471</v>
       </c>
-      <c r="B25" t="n">
-        <v>155552</v>
-      </c>
-      <c r="C25" t="s">
-        <v>265</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
@@ -3514,7 +3717,7 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="G25" t="s">
         <v>45</v>
@@ -3523,61 +3726,51 @@
         <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="J25" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="K25" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="L25" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="O25" t="s">
-        <v>241</v>
+        <v>61</v>
       </c>
       <c r="P25" t="s"/>
-      <c r="Q25" t="n">
-        <v>5</v>
-      </c>
-      <c r="R25" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>5</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="X25" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="Y25" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>50471</v>
       </c>
-      <c r="B26" t="n">
-        <v>155553</v>
-      </c>
-      <c r="C26" t="s">
-        <v>272</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
@@ -3585,7 +3778,7 @@
         <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="G26" t="s">
         <v>45</v>
@@ -3594,59 +3787,51 @@
         <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="J26" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="K26" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="L26" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="O26" t="s">
-        <v>241</v>
+        <v>61</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
-      <c r="R26" t="n">
-        <v>3</v>
-      </c>
+      <c r="R26" t="s"/>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>3</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="X26" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="Y26" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>50471</v>
       </c>
-      <c r="B27" t="n">
-        <v>26638</v>
-      </c>
-      <c r="C27" t="s">
-        <v>282</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
@@ -3654,7 +3839,7 @@
         <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="G27" t="s">
         <v>45</v>
@@ -3663,51 +3848,57 @@
         <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="J27" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="K27" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="L27" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>266</v>
+      </c>
+      <c r="O27" t="s">
+        <v>155</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
         <v>4</v>
       </c>
-      <c r="N27" t="s"/>
-      <c r="O27" t="s"/>
-      <c r="P27" t="s"/>
-      <c r="Q27" t="s"/>
-      <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="X27" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="Y27" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>50471</v>
       </c>
-      <c r="B28" t="n">
-        <v>155554</v>
-      </c>
-      <c r="C28" t="s">
-        <v>291</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
@@ -3715,7 +3906,7 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="G28" t="s">
         <v>45</v>
@@ -3724,32 +3915,32 @@
         <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="J28" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="K28" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="L28" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="M28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="O28" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P28" t="s"/>
-      <c r="Q28" t="s"/>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
       <c r="R28" t="s"/>
-      <c r="S28" t="n">
-        <v>1</v>
-      </c>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
         <v>5</v>
@@ -3758,25 +3949,21 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="X28" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="Y28" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>50471</v>
       </c>
-      <c r="B29" t="n">
-        <v>155555</v>
-      </c>
-      <c r="C29" t="s">
-        <v>301</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
@@ -3784,7 +3971,7 @@
         <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="G29" t="s">
         <v>45</v>
@@ -3793,49 +3980,43 @@
         <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="J29" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="K29" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="L29" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="O29" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="P29" t="s"/>
-      <c r="Q29" t="n">
-        <v>1</v>
-      </c>
-      <c r="R29" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>4</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="X29" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="Y29" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30">
@@ -3851,7 +4032,7 @@
         <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="G30" t="s">
         <v>45</v>
@@ -3860,59 +4041,57 @@
         <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="J30" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="K30" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="L30" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="M30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="O30" t="s">
-        <v>52</v>
+        <v>155</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
-        <v>4</v>
-      </c>
-      <c r="R30" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="X30" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="Y30" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>50471</v>
       </c>
-      <c r="B31" t="n">
-        <v>155556</v>
-      </c>
-      <c r="C31" t="s">
-        <v>317</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
@@ -3920,7 +4099,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="G31" t="s">
         <v>45</v>
@@ -3929,55 +4108,55 @@
         <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="J31" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="K31" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="L31" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="M31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="O31" t="s">
-        <v>241</v>
+        <v>155</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
-      <c r="R31" t="s"/>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="X31" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="Y31" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>50471</v>
       </c>
-      <c r="B32" t="n">
-        <v>30718</v>
-      </c>
-      <c r="C32" t="s">
-        <v>327</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
@@ -3985,7 +4164,7 @@
         <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>328</v>
+        <v>303</v>
       </c>
       <c r="G32" t="s">
         <v>45</v>
@@ -3994,65 +4173,47 @@
         <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
       <c r="J32" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="K32" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="L32" t="s">
-        <v>332</v>
+        <v>307</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
-      </c>
-      <c r="N32" t="s">
-        <v>333</v>
-      </c>
-      <c r="O32" t="s">
-        <v>241</v>
-      </c>
-      <c r="P32" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>5</v>
-      </c>
-      <c r="R32" t="n">
-        <v>3</v>
-      </c>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>4</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="X32" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="Y32" t="s">
-        <v>336</v>
+        <v>310</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>50471</v>
       </c>
-      <c r="B33" t="n">
-        <v>155557</v>
-      </c>
-      <c r="C33" t="s">
-        <v>337</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
@@ -4060,7 +4221,7 @@
         <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>338</v>
+        <v>311</v>
       </c>
       <c r="G33" t="s">
         <v>45</v>
@@ -4069,65 +4230,55 @@
         <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="J33" t="s">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="K33" t="s">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="L33" t="s">
-        <v>342</v>
+        <v>315</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N33" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="O33" t="s">
-        <v>343</v>
-      </c>
-      <c r="P33" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>5</v>
-      </c>
-      <c r="R33" t="n">
-        <v>4</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
       <c r="S33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="X33" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="Y33" t="s">
-        <v>344</v>
+        <v>319</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>50471</v>
       </c>
-      <c r="B34" t="n">
-        <v>60812</v>
-      </c>
-      <c r="C34" t="s">
-        <v>345</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
@@ -4135,7 +4286,7 @@
         <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="G34" t="s">
         <v>45</v>
@@ -4144,65 +4295,57 @@
         <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>347</v>
+        <v>321</v>
       </c>
       <c r="J34" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="K34" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
       <c r="L34" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>351</v>
+        <v>316</v>
       </c>
       <c r="O34" t="s">
-        <v>343</v>
-      </c>
-      <c r="P34" t="n">
-        <v>3</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="P34" t="s"/>
       <c r="Q34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R34" t="n">
         <v>3</v>
       </c>
-      <c r="S34" t="n">
-        <v>4</v>
-      </c>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>352</v>
+        <v>317</v>
       </c>
       <c r="X34" t="s">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="Y34" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>50471</v>
       </c>
-      <c r="B35" t="n">
-        <v>155558</v>
-      </c>
-      <c r="C35" t="s">
-        <v>355</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
@@ -4210,7 +4353,7 @@
         <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="G35" t="s">
         <v>45</v>
@@ -4219,65 +4362,55 @@
         <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>357</v>
+        <v>327</v>
       </c>
       <c r="J35" t="s">
-        <v>358</v>
+        <v>328</v>
       </c>
       <c r="K35" t="s">
-        <v>359</v>
+        <v>329</v>
       </c>
       <c r="L35" t="s">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="M35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>361</v>
+        <v>331</v>
       </c>
       <c r="O35" t="s">
-        <v>241</v>
-      </c>
-      <c r="P35" t="n">
-        <v>1</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P35" t="s"/>
       <c r="Q35" t="n">
-        <v>2</v>
-      </c>
-      <c r="R35" t="n">
-        <v>3</v>
-      </c>
-      <c r="S35" t="n">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>362</v>
+        <v>332</v>
       </c>
       <c r="X35" t="s">
-        <v>363</v>
+        <v>333</v>
       </c>
       <c r="Y35" t="s">
-        <v>364</v>
+        <v>334</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>50471</v>
       </c>
-      <c r="B36" t="n">
-        <v>70965</v>
-      </c>
-      <c r="C36" t="s">
-        <v>365</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
@@ -4285,7 +4418,7 @@
         <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="G36" t="s">
         <v>45</v>
@@ -4294,61 +4427,51 @@
         <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="J36" t="s">
-        <v>368</v>
+        <v>337</v>
       </c>
       <c r="K36" t="s">
-        <v>369</v>
+        <v>338</v>
       </c>
       <c r="L36" t="s">
-        <v>370</v>
+        <v>339</v>
       </c>
       <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="s"/>
-      <c r="O36" t="s"/>
-      <c r="P36" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>3</v>
-      </c>
-      <c r="R36" t="n">
         <v>2</v>
       </c>
-      <c r="S36" t="n">
-        <v>3</v>
-      </c>
+      <c r="N36" t="s">
+        <v>340</v>
+      </c>
+      <c r="O36" t="s">
+        <v>155</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>1</v>
-      </c>
+      <c r="U36" t="s"/>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>371</v>
+        <v>341</v>
       </c>
       <c r="X36" t="s">
-        <v>372</v>
+        <v>342</v>
       </c>
       <c r="Y36" t="s">
-        <v>373</v>
+        <v>343</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>50471</v>
       </c>
-      <c r="B37" t="n">
-        <v>47541</v>
-      </c>
-      <c r="C37" t="s">
-        <v>374</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
@@ -4356,7 +4479,7 @@
         <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>375</v>
+        <v>344</v>
       </c>
       <c r="G37" t="s">
         <v>45</v>
@@ -4365,61 +4488,55 @@
         <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>376</v>
+        <v>345</v>
       </c>
       <c r="J37" t="s">
-        <v>377</v>
+        <v>346</v>
       </c>
       <c r="K37" t="s">
-        <v>378</v>
+        <v>347</v>
       </c>
       <c r="L37" t="s">
-        <v>379</v>
+        <v>348</v>
       </c>
       <c r="M37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>380</v>
+        <v>349</v>
       </c>
       <c r="O37" t="s">
-        <v>52</v>
-      </c>
-      <c r="P37" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>3</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
       <c r="R37" t="n">
-        <v>3</v>
-      </c>
-      <c r="S37" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>350</v>
+      </c>
+      <c r="X37" t="s">
+        <v>351</v>
+      </c>
       <c r="Y37" t="s">
-        <v>379</v>
+        <v>352</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>50471</v>
       </c>
-      <c r="B38" t="n">
-        <v>41235</v>
-      </c>
-      <c r="C38" t="s">
-        <v>381</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
@@ -4427,7 +4544,7 @@
         <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>382</v>
+        <v>353</v>
       </c>
       <c r="G38" t="s">
         <v>45</v>
@@ -4436,65 +4553,51 @@
         <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="J38" t="s">
-        <v>384</v>
+        <v>355</v>
       </c>
       <c r="K38" t="s">
-        <v>385</v>
+        <v>356</v>
       </c>
       <c r="L38" t="s">
-        <v>386</v>
+        <v>357</v>
       </c>
       <c r="M38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>387</v>
+        <v>349</v>
       </c>
       <c r="O38" t="s">
-        <v>136</v>
-      </c>
-      <c r="P38" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>5</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5</v>
-      </c>
-      <c r="S38" t="n">
-        <v>5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>1</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>388</v>
+        <v>358</v>
       </c>
       <c r="X38" t="s">
-        <v>389</v>
+        <v>359</v>
       </c>
       <c r="Y38" t="s">
-        <v>390</v>
+        <v>360</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>50471</v>
       </c>
-      <c r="B39" t="n">
-        <v>155559</v>
-      </c>
-      <c r="C39" t="s">
-        <v>391</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
@@ -4502,7 +4605,7 @@
         <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>392</v>
+        <v>361</v>
       </c>
       <c r="G39" t="s">
         <v>45</v>
@@ -4511,61 +4614,57 @@
         <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>393</v>
+        <v>362</v>
       </c>
       <c r="J39" t="s">
-        <v>394</v>
+        <v>363</v>
       </c>
       <c r="K39" t="s">
-        <v>395</v>
+        <v>364</v>
       </c>
       <c r="L39" t="s">
-        <v>396</v>
+        <v>365</v>
       </c>
       <c r="M39" t="n">
-        <v>3</v>
-      </c>
-      <c r="N39" t="s"/>
-      <c r="O39" t="s"/>
-      <c r="P39" t="n">
         <v>4</v>
       </c>
+      <c r="N39" t="s">
+        <v>366</v>
+      </c>
+      <c r="O39" t="s">
+        <v>165</v>
+      </c>
+      <c r="P39" t="s"/>
       <c r="Q39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R39" t="n">
-        <v>2</v>
-      </c>
-      <c r="S39" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>397</v>
+        <v>358</v>
       </c>
       <c r="X39" t="s">
-        <v>398</v>
+        <v>359</v>
       </c>
       <c r="Y39" t="s">
-        <v>399</v>
+        <v>367</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>50471</v>
       </c>
-      <c r="B40" t="n">
-        <v>20794</v>
-      </c>
-      <c r="C40" t="s">
-        <v>400</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
@@ -4573,7 +4672,7 @@
         <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>401</v>
+        <v>368</v>
       </c>
       <c r="G40" t="s">
         <v>45</v>
@@ -4582,65 +4681,51 @@
         <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>402</v>
+        <v>369</v>
       </c>
       <c r="J40" t="s">
-        <v>403</v>
+        <v>370</v>
       </c>
       <c r="K40" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="L40" t="s">
-        <v>405</v>
+        <v>372</v>
       </c>
       <c r="M40" t="n">
         <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="O40" t="s">
         <v>61</v>
       </c>
-      <c r="P40" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>3</v>
-      </c>
-      <c r="R40" t="n">
-        <v>3</v>
-      </c>
-      <c r="S40" t="n">
-        <v>4</v>
-      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>2</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="X40" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="Y40" t="s">
-        <v>409</v>
+        <v>376</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>50471</v>
       </c>
-      <c r="B41" t="n">
-        <v>155560</v>
-      </c>
-      <c r="C41" t="s">
-        <v>410</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
@@ -4648,7 +4733,7 @@
         <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>411</v>
+        <v>377</v>
       </c>
       <c r="G41" t="s">
         <v>45</v>
@@ -4657,61 +4742,61 @@
         <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>412</v>
+        <v>378</v>
       </c>
       <c r="J41" t="s">
-        <v>413</v>
+        <v>379</v>
       </c>
       <c r="K41" t="s">
-        <v>414</v>
+        <v>380</v>
       </c>
       <c r="L41" t="s">
-        <v>415</v>
+        <v>381</v>
       </c>
       <c r="M41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>416</v>
+        <v>382</v>
       </c>
       <c r="O41" t="s">
-        <v>241</v>
+        <v>155</v>
       </c>
       <c r="P41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
+      <c r="W41" t="s">
+        <v>383</v>
+      </c>
+      <c r="X41" t="s">
+        <v>384</v>
+      </c>
       <c r="Y41" t="s">
-        <v>417</v>
+        <v>385</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>50471</v>
       </c>
-      <c r="B42" t="n">
-        <v>155561</v>
-      </c>
-      <c r="C42" t="s">
-        <v>418</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
@@ -4719,7 +4804,7 @@
         <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>419</v>
+        <v>386</v>
       </c>
       <c r="G42" t="s">
         <v>45</v>
@@ -4728,61 +4813,51 @@
         <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>420</v>
+        <v>387</v>
       </c>
       <c r="J42" t="s">
-        <v>421</v>
+        <v>388</v>
       </c>
       <c r="K42" t="s">
-        <v>422</v>
+        <v>389</v>
       </c>
       <c r="L42" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
       <c r="M42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>416</v>
+        <v>391</v>
       </c>
       <c r="O42" t="s">
-        <v>136</v>
-      </c>
-      <c r="P42" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>3</v>
-      </c>
-      <c r="R42" t="n">
-        <v>4</v>
-      </c>
-      <c r="S42" t="n">
-        <v>3</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>4</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
+      <c r="W42" t="s">
+        <v>383</v>
+      </c>
+      <c r="X42" t="s">
+        <v>384</v>
+      </c>
       <c r="Y42" t="s">
-        <v>423</v>
+        <v>392</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>50471</v>
       </c>
-      <c r="B43" t="n">
-        <v>70965</v>
-      </c>
-      <c r="C43" t="s">
-        <v>365</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
@@ -4790,7 +4865,7 @@
         <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>424</v>
+        <v>393</v>
       </c>
       <c r="G43" t="s">
         <v>45</v>
@@ -4799,61 +4874,55 @@
         <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>425</v>
+        <v>394</v>
       </c>
       <c r="J43" t="s">
-        <v>426</v>
+        <v>395</v>
       </c>
       <c r="K43" t="s">
-        <v>427</v>
+        <v>396</v>
       </c>
       <c r="L43" t="s">
-        <v>428</v>
+        <v>397</v>
       </c>
       <c r="M43" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>429</v>
+        <v>398</v>
       </c>
       <c r="O43" t="s">
         <v>61</v>
       </c>
-      <c r="P43" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>5</v>
-      </c>
-      <c r="R43" t="n">
-        <v>3</v>
-      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
       <c r="S43" t="n">
         <v>5</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
+      <c r="W43" t="s">
+        <v>399</v>
+      </c>
+      <c r="X43" t="s">
+        <v>400</v>
+      </c>
       <c r="Y43" t="s">
-        <v>430</v>
+        <v>401</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>50471</v>
       </c>
-      <c r="B44" t="n">
-        <v>155562</v>
-      </c>
-      <c r="C44" t="s">
-        <v>431</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
@@ -4861,7 +4930,7 @@
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>432</v>
+        <v>402</v>
       </c>
       <c r="G44" t="s">
         <v>45</v>
@@ -4870,61 +4939,61 @@
         <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>433</v>
+        <v>403</v>
       </c>
       <c r="J44" t="s">
-        <v>434</v>
+        <v>404</v>
       </c>
       <c r="K44" t="s">
-        <v>435</v>
+        <v>405</v>
       </c>
       <c r="L44" t="s">
-        <v>436</v>
+        <v>406</v>
       </c>
       <c r="M44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>437</v>
+        <v>407</v>
       </c>
       <c r="O44" t="s">
-        <v>241</v>
+        <v>61</v>
       </c>
       <c r="P44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
+      <c r="W44" t="s">
+        <v>408</v>
+      </c>
+      <c r="X44" t="s">
+        <v>409</v>
+      </c>
       <c r="Y44" t="s">
-        <v>438</v>
+        <v>410</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>50471</v>
       </c>
-      <c r="B45" t="n">
-        <v>155563</v>
-      </c>
-      <c r="C45" t="s">
-        <v>439</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
@@ -4932,7 +5001,7 @@
         <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>440</v>
+        <v>411</v>
       </c>
       <c r="G45" t="s">
         <v>45</v>
@@ -4941,57 +5010,61 @@
         <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>441</v>
+        <v>412</v>
       </c>
       <c r="J45" t="s">
-        <v>442</v>
+        <v>413</v>
       </c>
       <c r="K45" t="s">
-        <v>443</v>
+        <v>414</v>
       </c>
       <c r="L45" t="s">
-        <v>444</v>
+        <v>415</v>
       </c>
       <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="s"/>
-      <c r="O45" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>398</v>
+      </c>
+      <c r="O45" t="s">
+        <v>155</v>
+      </c>
       <c r="P45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
         <v>4</v>
       </c>
-      <c r="R45" t="n">
-        <v>1</v>
-      </c>
       <c r="S45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
+      <c r="W45" t="s">
+        <v>416</v>
+      </c>
+      <c r="X45" t="s">
+        <v>417</v>
+      </c>
       <c r="Y45" t="s">
-        <v>445</v>
+        <v>418</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>50471</v>
       </c>
-      <c r="B46" t="n">
-        <v>155564</v>
-      </c>
-      <c r="C46" t="s">
-        <v>446</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
@@ -4999,7 +5072,7 @@
         <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>447</v>
+        <v>419</v>
       </c>
       <c r="G46" t="s">
         <v>45</v>
@@ -5008,61 +5081,51 @@
         <v>46</v>
       </c>
       <c r="I46" t="s">
-        <v>448</v>
+        <v>420</v>
       </c>
       <c r="J46" t="s">
-        <v>449</v>
+        <v>421</v>
       </c>
       <c r="K46" t="s">
-        <v>450</v>
+        <v>422</v>
       </c>
       <c r="L46" t="s">
-        <v>451</v>
+        <v>423</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>452</v>
+        <v>398</v>
       </c>
       <c r="O46" t="s">
-        <v>61</v>
-      </c>
-      <c r="P46" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>3</v>
-      </c>
-      <c r="R46" t="n">
-        <v>3</v>
-      </c>
-      <c r="S46" t="n">
-        <v>3</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
-      <c r="U46" t="n">
-        <v>3</v>
-      </c>
+      <c r="U46" t="s"/>
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
+      <c r="W46" t="s">
+        <v>424</v>
+      </c>
+      <c r="X46" t="s">
+        <v>425</v>
+      </c>
       <c r="Y46" t="s">
-        <v>453</v>
+        <v>426</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>50471</v>
       </c>
-      <c r="B47" t="n">
-        <v>155565</v>
-      </c>
-      <c r="C47" t="s">
-        <v>454</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
@@ -5070,7 +5133,7 @@
         <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>455</v>
+        <v>427</v>
       </c>
       <c r="G47" t="s">
         <v>45</v>
@@ -5079,37 +5142,37 @@
         <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>456</v>
+        <v>428</v>
       </c>
       <c r="J47" t="s">
-        <v>457</v>
+        <v>429</v>
       </c>
       <c r="K47" t="s">
-        <v>458</v>
+        <v>430</v>
       </c>
       <c r="L47" t="s">
-        <v>459</v>
+        <v>431</v>
       </c>
       <c r="M47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>460</v>
+        <v>432</v>
       </c>
       <c r="O47" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="P47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
@@ -5118,22 +5181,22 @@
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s"/>
-      <c r="X47" t="s"/>
+      <c r="W47" t="s">
+        <v>433</v>
+      </c>
+      <c r="X47" t="s">
+        <v>434</v>
+      </c>
       <c r="Y47" t="s">
-        <v>459</v>
+        <v>435</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>50471</v>
       </c>
-      <c r="B48" t="n">
-        <v>41011</v>
-      </c>
-      <c r="C48" t="s">
-        <v>461</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
@@ -5141,7 +5204,7 @@
         <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>462</v>
+        <v>436</v>
       </c>
       <c r="G48" t="s">
         <v>45</v>
@@ -5150,31 +5213,31 @@
         <v>46</v>
       </c>
       <c r="I48" t="s">
-        <v>463</v>
+        <v>437</v>
       </c>
       <c r="J48" t="s">
-        <v>464</v>
+        <v>438</v>
       </c>
       <c r="K48" t="s">
-        <v>465</v>
+        <v>439</v>
       </c>
       <c r="L48" t="s">
-        <v>466</v>
+        <v>440</v>
       </c>
       <c r="M48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>467</v>
+        <v>432</v>
       </c>
       <c r="O48" t="s">
-        <v>61</v>
+        <v>165</v>
       </c>
       <c r="P48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R48" t="n">
         <v>4</v>
@@ -5184,27 +5247,27 @@
       </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s"/>
-      <c r="X48" t="s"/>
+      <c r="W48" t="s">
+        <v>433</v>
+      </c>
+      <c r="X48" t="s">
+        <v>434</v>
+      </c>
       <c r="Y48" t="s">
-        <v>466</v>
+        <v>441</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>50471</v>
       </c>
-      <c r="B49" t="n">
-        <v>155566</v>
-      </c>
-      <c r="C49" t="s">
-        <v>468</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
@@ -5212,7 +5275,7 @@
         <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>469</v>
+        <v>442</v>
       </c>
       <c r="G49" t="s">
         <v>45</v>
@@ -5221,37 +5284,37 @@
         <v>46</v>
       </c>
       <c r="I49" t="s">
-        <v>470</v>
+        <v>443</v>
       </c>
       <c r="J49" t="s">
-        <v>471</v>
+        <v>444</v>
       </c>
       <c r="K49" t="s">
-        <v>472</v>
+        <v>445</v>
       </c>
       <c r="L49" t="s">
-        <v>473</v>
+        <v>446</v>
       </c>
       <c r="M49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>474</v>
+        <v>447</v>
       </c>
       <c r="O49" t="s">
-        <v>61</v>
+        <v>165</v>
       </c>
       <c r="P49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
@@ -5260,22 +5323,22 @@
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s"/>
-      <c r="X49" t="s"/>
+      <c r="W49" t="s">
+        <v>448</v>
+      </c>
+      <c r="X49" t="s">
+        <v>449</v>
+      </c>
       <c r="Y49" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>50471</v>
       </c>
-      <c r="B50" t="n">
-        <v>155567</v>
-      </c>
-      <c r="C50" t="s">
-        <v>476</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
@@ -5283,7 +5346,7 @@
         <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>477</v>
+        <v>451</v>
       </c>
       <c r="G50" t="s">
         <v>45</v>
@@ -5292,61 +5355,61 @@
         <v>46</v>
       </c>
       <c r="I50" t="s">
-        <v>478</v>
+        <v>452</v>
       </c>
       <c r="J50" t="s">
-        <v>479</v>
+        <v>453</v>
       </c>
       <c r="K50" t="s">
-        <v>480</v>
+        <v>454</v>
       </c>
       <c r="L50" t="s">
-        <v>481</v>
+        <v>455</v>
       </c>
       <c r="M50" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="O50" t="s">
-        <v>52</v>
+        <v>155</v>
       </c>
       <c r="P50" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s"/>
-      <c r="X50" t="s"/>
+      <c r="W50" t="s">
+        <v>457</v>
+      </c>
+      <c r="X50" t="s">
+        <v>458</v>
+      </c>
       <c r="Y50" t="s">
-        <v>481</v>
+        <v>459</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>50471</v>
       </c>
-      <c r="B51" t="n">
-        <v>155568</v>
-      </c>
-      <c r="C51" t="s">
-        <v>482</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
@@ -5354,7 +5417,7 @@
         <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>483</v>
+        <v>460</v>
       </c>
       <c r="G51" t="s">
         <v>45</v>
@@ -5363,35 +5426,1231 @@
         <v>46</v>
       </c>
       <c r="I51" t="s">
-        <v>484</v>
+        <v>461</v>
       </c>
       <c r="J51" t="s">
-        <v>485</v>
+        <v>462</v>
       </c>
       <c r="K51" t="s">
-        <v>486</v>
+        <v>463</v>
       </c>
       <c r="L51" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
       <c r="N51" t="s"/>
       <c r="O51" t="s"/>
-      <c r="P51" t="s"/>
-      <c r="Q51" t="s"/>
-      <c r="R51" t="s"/>
-      <c r="S51" t="s"/>
+      <c r="P51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>2</v>
+      </c>
+      <c r="S51" t="n">
+        <v>3</v>
+      </c>
       <c r="T51" t="s"/>
-      <c r="U51" t="s"/>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
+      <c r="W51" t="s">
+        <v>465</v>
+      </c>
+      <c r="X51" t="s">
+        <v>466</v>
+      </c>
       <c r="Y51" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>50471</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>468</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>469</v>
+      </c>
+      <c r="J52" t="s">
+        <v>470</v>
+      </c>
+      <c r="K52" t="s">
+        <v>471</v>
+      </c>
+      <c r="L52" t="s">
+        <v>472</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>473</v>
+      </c>
+      <c r="O52" t="s">
+        <v>52</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>3</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>50471</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>474</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>475</v>
+      </c>
+      <c r="J53" t="s">
+        <v>476</v>
+      </c>
+      <c r="K53" t="s">
+        <v>477</v>
+      </c>
+      <c r="L53" t="s">
+        <v>478</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>479</v>
+      </c>
+      <c r="O53" t="s">
+        <v>129</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>480</v>
+      </c>
+      <c r="X53" t="s">
+        <v>481</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>50471</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>483</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>484</v>
+      </c>
+      <c r="J54" t="s">
+        <v>485</v>
+      </c>
+      <c r="K54" t="s">
+        <v>486</v>
+      </c>
+      <c r="L54" t="s">
         <v>487</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>2</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>488</v>
+      </c>
+      <c r="X54" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>50471</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>491</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>492</v>
+      </c>
+      <c r="J55" t="s">
+        <v>493</v>
+      </c>
+      <c r="K55" t="s">
+        <v>494</v>
+      </c>
+      <c r="L55" t="s">
+        <v>495</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" t="s">
+        <v>496</v>
+      </c>
+      <c r="O55" t="s">
+        <v>61</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>2</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>497</v>
+      </c>
+      <c r="X55" t="s">
+        <v>498</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>50471</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>500</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>501</v>
+      </c>
+      <c r="J56" t="s">
+        <v>502</v>
+      </c>
+      <c r="K56" t="s">
+        <v>503</v>
+      </c>
+      <c r="L56" t="s">
+        <v>504</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>505</v>
+      </c>
+      <c r="O56" t="s">
+        <v>155</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>50471</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>507</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>508</v>
+      </c>
+      <c r="J57" t="s">
+        <v>509</v>
+      </c>
+      <c r="K57" t="s">
+        <v>510</v>
+      </c>
+      <c r="L57" t="s">
+        <v>511</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>505</v>
+      </c>
+      <c r="O57" t="s">
+        <v>129</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>50471</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>512</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>513</v>
+      </c>
+      <c r="J58" t="s">
+        <v>514</v>
+      </c>
+      <c r="K58" t="s">
+        <v>515</v>
+      </c>
+      <c r="L58" t="s">
+        <v>516</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>517</v>
+      </c>
+      <c r="O58" t="s">
+        <v>61</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>50471</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>519</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>520</v>
+      </c>
+      <c r="J59" t="s">
+        <v>521</v>
+      </c>
+      <c r="K59" t="s">
+        <v>522</v>
+      </c>
+      <c r="L59" t="s">
+        <v>523</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>524</v>
+      </c>
+      <c r="O59" t="s">
+        <v>155</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>50471</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>526</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>527</v>
+      </c>
+      <c r="J60" t="s">
+        <v>528</v>
+      </c>
+      <c r="K60" t="s">
+        <v>529</v>
+      </c>
+      <c r="L60" t="s">
+        <v>530</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
+      <c r="P60" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>1</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>50471</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>532</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>533</v>
+      </c>
+      <c r="J61" t="s">
+        <v>534</v>
+      </c>
+      <c r="K61" t="s">
+        <v>535</v>
+      </c>
+      <c r="L61" t="s">
+        <v>536</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>537</v>
+      </c>
+      <c r="O61" t="s">
+        <v>61</v>
+      </c>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>50471</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>539</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>540</v>
+      </c>
+      <c r="J62" t="s">
+        <v>541</v>
+      </c>
+      <c r="K62" t="s">
+        <v>542</v>
+      </c>
+      <c r="L62" t="s">
+        <v>543</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>544</v>
+      </c>
+      <c r="O62" t="s">
+        <v>129</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>50471</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>545</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>546</v>
+      </c>
+      <c r="J63" t="s">
+        <v>547</v>
+      </c>
+      <c r="K63" t="s">
+        <v>548</v>
+      </c>
+      <c r="L63" t="s">
+        <v>549</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>550</v>
+      </c>
+      <c r="O63" t="s">
+        <v>61</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>50471</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>551</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>552</v>
+      </c>
+      <c r="J64" t="s">
+        <v>553</v>
+      </c>
+      <c r="K64" t="s">
+        <v>554</v>
+      </c>
+      <c r="L64" t="s">
+        <v>555</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>556</v>
+      </c>
+      <c r="O64" t="s">
+        <v>61</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>50471</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>558</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>559</v>
+      </c>
+      <c r="J65" t="s">
+        <v>560</v>
+      </c>
+      <c r="K65" t="s">
+        <v>561</v>
+      </c>
+      <c r="L65" t="s">
+        <v>562</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>550</v>
+      </c>
+      <c r="O65" t="s">
+        <v>52</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>50471</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>563</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>564</v>
+      </c>
+      <c r="J66" t="s">
+        <v>565</v>
+      </c>
+      <c r="K66" t="s">
+        <v>566</v>
+      </c>
+      <c r="L66" t="s">
+        <v>567</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s"/>
+      <c r="O66" t="s"/>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>50471</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>568</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>569</v>
+      </c>
+      <c r="J67" t="s">
+        <v>570</v>
+      </c>
+      <c r="K67" t="s">
+        <v>571</v>
+      </c>
+      <c r="L67" t="s">
+        <v>572</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>50471</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>574</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>575</v>
+      </c>
+      <c r="J68" t="s">
+        <v>576</v>
+      </c>
+      <c r="K68" t="s">
+        <v>577</v>
+      </c>
+      <c r="L68" t="s">
+        <v>578</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>579</v>
+      </c>
+      <c r="O68" t="s">
+        <v>52</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>50471</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>580</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>581</v>
+      </c>
+      <c r="J69" t="s">
+        <v>582</v>
+      </c>
+      <c r="K69" t="s">
+        <v>583</v>
+      </c>
+      <c r="L69" t="s">
+        <v>584</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>585</v>
+      </c>
+      <c r="O69" t="s">
+        <v>61</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>586</v>
       </c>
     </row>
   </sheetData>
